--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\Останкино_недогрузы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB0C06-2199-4DC7-89CA-91E65BE876F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B08BC9C-AFF7-4925-B48B-1792E074665D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Донецк!$A$1:$BH$165</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1214,7 +1214,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Ost_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38E4593-2B49-4B0A-AA7C-3A24344E65D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB06E5-4F85-40DC-A457-2081DC172414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -947,6 +947,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -1234,19 +1241,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="27" customWidth="1"/>
-    <col min="4" max="12" width="10.7109375" style="25" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="27" customWidth="1"/>
-    <col min="15" max="18" width="10.7109375" style="25" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="27" customWidth="1"/>
-    <col min="20" max="39" width="10.7109375" style="25" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="27" customWidth="1"/>
+    <col min="7" max="39" width="10.7109375" style="25" customWidth="1"/>
     <col min="40" max="40" width="10.7109375" style="27" customWidth="1"/>
     <col min="41" max="42" width="10.7109375" style="25" customWidth="1"/>
     <col min="43" max="43" width="10.7109375" style="27" customWidth="1"/>
@@ -1281,70 +1285,70 @@
       <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="U1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="W1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -1674,88 +1678,88 @@
     </row>
     <row r="2" spans="1:132" x14ac:dyDescent="0.25">
       <c r="C2" s="23">
-        <f>SUM(C3:C168)</f>
-        <v>2874</v>
+        <f t="shared" ref="C2:BO2" si="0">SUM(C3:C168)</f>
+        <v>1993</v>
       </c>
       <c r="D2" s="23">
-        <f t="shared" ref="D2:BO2" si="0">SUM(D3:D168)</f>
-        <v>3901</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E2" s="23">
         <f t="shared" si="0"/>
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="F2" s="23">
-        <f t="shared" si="0"/>
-        <v>103</v>
+        <f>SUM(F3:F168)</f>
+        <v>2874</v>
       </c>
       <c r="G2" s="23">
         <f t="shared" si="0"/>
-        <v>2194</v>
+        <v>2929.4846000000002</v>
       </c>
       <c r="H2" s="23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I2" s="23">
         <f t="shared" si="0"/>
-        <v>1993</v>
-      </c>
-      <c r="J2" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2" s="23">
-        <f t="shared" si="0"/>
-        <v>2929.4846000000002</v>
-      </c>
-      <c r="M2" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N2" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="23">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <f>SUM(J3:J168)</f>
+        <v>3901</v>
+      </c>
+      <c r="K2" s="37">
         <f t="shared" si="0"/>
         <v>3935</v>
       </c>
-      <c r="P2" s="23">
+      <c r="L2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="23">
+        <v>-34</v>
+      </c>
+      <c r="M2" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R2" s="23">
+        <v>9.39</v>
+      </c>
+      <c r="N2" s="36">
+        <f>SUM(N3:N168)</f>
+        <v>1310</v>
+      </c>
+      <c r="O2" s="37">
+        <f>SUM(O3:O168)</f>
+        <v>103</v>
+      </c>
+      <c r="P2" s="37">
         <f t="shared" si="0"/>
         <v>1415</v>
       </c>
-      <c r="S2" s="23">
+      <c r="Q2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T2" s="23">
+        <v>-2</v>
+      </c>
+      <c r="R2" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U2" s="23">
+      <c r="S2" s="36">
+        <f>SUM(S3:S168)</f>
+        <v>2194</v>
+      </c>
+      <c r="T2" s="37">
+        <f>SUM(T3:T168)</f>
+        <v>20</v>
+      </c>
+      <c r="U2" s="37">
         <f t="shared" si="0"/>
         <v>2463</v>
       </c>
-      <c r="V2" s="23">
+      <c r="V2" s="37">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W2" s="23">
+        <v>-249</v>
+      </c>
+      <c r="W2" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="X2" s="23">
         <f t="shared" si="0"/>
@@ -2201,7 +2205,30 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="X3" s="28"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39">
+        <f>J3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39">
+        <f>N3+O3-P3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39">
+        <f>S3+T3-U3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="29"/>
+      <c r="X3" s="34"/>
       <c r="Z3" s="25">
         <v>0</v>
       </c>
@@ -2301,13 +2328,36 @@
       <c r="B4" s="26">
         <v>0.4</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>48</v>
       </c>
-      <c r="L4" s="27">
+      <c r="G4" s="27">
         <v>52.400000000000013</v>
       </c>
-      <c r="X4" s="31">
+      <c r="J4" s="30"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39">
+        <f t="shared" ref="L4:L67" si="3">J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39">
+        <f t="shared" ref="Q4:Q67" si="4">N4+O4-P4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39">
+        <f t="shared" ref="V4:V67" si="5">S4+T4-U4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="35">
         <v>40</v>
       </c>
       <c r="Y4" s="27">
@@ -2523,7 +2573,30 @@
       <c r="B5" s="26">
         <v>1</v>
       </c>
-      <c r="X5" s="31">
+      <c r="J5" s="30"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="29"/>
+      <c r="X5" s="35">
         <v>12</v>
       </c>
       <c r="Y5" s="27">
@@ -2709,7 +2782,30 @@
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="X6" s="28"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="29"/>
+      <c r="X6" s="34"/>
       <c r="Z6" s="25">
         <v>0</v>
       </c>
@@ -2846,7 +2942,30 @@
       <c r="B7" s="26">
         <v>1</v>
       </c>
-      <c r="X7" s="28"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="29"/>
+      <c r="X7" s="34"/>
       <c r="Z7" s="25">
         <v>0</v>
       </c>
@@ -2984,33 +3103,50 @@
         <v>1</v>
       </c>
       <c r="C8">
+        <v>183</v>
+      </c>
+      <c r="F8">
         <v>221</v>
       </c>
-      <c r="D8">
+      <c r="G8" s="27">
+        <v>216.81680000000009</v>
+      </c>
+      <c r="J8" s="31">
         <v>189</v>
       </c>
-      <c r="E8">
+      <c r="K8" s="35">
+        <v>186</v>
+      </c>
+      <c r="L8" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="31">
         <v>49</v>
       </c>
-      <c r="G8">
+      <c r="O8" s="39"/>
+      <c r="P8" s="35">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="29"/>
+      <c r="S8" s="31">
         <v>394</v>
       </c>
-      <c r="I8">
-        <v>183</v>
-      </c>
-      <c r="L8" s="27">
-        <v>216.81680000000009</v>
-      </c>
-      <c r="O8">
-        <v>186</v>
-      </c>
-      <c r="R8">
-        <v>47</v>
-      </c>
-      <c r="U8">
+      <c r="T8" s="39"/>
+      <c r="U8" s="35">
         <v>394</v>
       </c>
-      <c r="X8" s="28"/>
+      <c r="V8" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="29"/>
+      <c r="X8" s="34"/>
       <c r="Z8" s="25">
         <v>0</v>
       </c>
@@ -3250,13 +3386,34 @@
       <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="J9" s="30"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="31">
         <v>4</v>
       </c>
-      <c r="R9">
+      <c r="O9" s="39"/>
+      <c r="P9" s="35">
         <v>5</v>
       </c>
-      <c r="X9" s="28"/>
+      <c r="Q9" s="39">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="X9" s="34"/>
       <c r="Z9" s="25">
         <v>0</v>
       </c>
@@ -3414,7 +3571,30 @@
       <c r="B10" s="26">
         <v>1</v>
       </c>
-      <c r="X10" s="28"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="34"/>
       <c r="Z10" s="25">
         <v>0</v>
       </c>
@@ -3622,27 +3802,46 @@
         <v>1</v>
       </c>
       <c r="C11">
+        <v>93</v>
+      </c>
+      <c r="F11">
         <v>162</v>
       </c>
-      <c r="D11">
+      <c r="G11" s="27">
+        <v>161.1116000000001</v>
+      </c>
+      <c r="J11" s="31">
         <v>84</v>
       </c>
-      <c r="E11">
+      <c r="K11" s="35">
+        <v>84</v>
+      </c>
+      <c r="L11" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="31">
         <v>40</v>
       </c>
-      <c r="I11">
-        <v>93</v>
-      </c>
-      <c r="L11" s="27">
-        <v>161.1116000000001</v>
-      </c>
-      <c r="O11">
-        <v>84</v>
-      </c>
-      <c r="R11">
+      <c r="O11" s="39"/>
+      <c r="P11" s="35">
         <v>41</v>
       </c>
-      <c r="X11" s="28"/>
+      <c r="Q11" s="39">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="29"/>
+      <c r="X11" s="34"/>
       <c r="Z11" s="25">
         <v>0</v>
       </c>
@@ -3874,31 +4073,48 @@
       <c r="B12" s="26">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>219</v>
       </c>
-      <c r="D12">
+      <c r="G12" s="27">
+        <v>219.1028</v>
+      </c>
+      <c r="J12" s="31">
         <v>244</v>
       </c>
-      <c r="E12">
+      <c r="K12" s="35">
+        <v>241</v>
+      </c>
+      <c r="L12" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M12" s="29"/>
+      <c r="N12" s="31">
         <v>97</v>
       </c>
-      <c r="G12">
+      <c r="O12" s="39"/>
+      <c r="P12" s="35">
+        <v>95</v>
+      </c>
+      <c r="Q12" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R12" s="29"/>
+      <c r="S12" s="31">
         <v>92</v>
       </c>
-      <c r="L12" s="27">
-        <v>219.1028</v>
-      </c>
-      <c r="O12">
-        <v>241</v>
-      </c>
-      <c r="R12">
-        <v>95</v>
-      </c>
-      <c r="U12">
+      <c r="T12" s="39"/>
+      <c r="U12" s="35">
         <v>92</v>
       </c>
-      <c r="X12" s="31">
+      <c r="V12" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="29"/>
+      <c r="X12" s="35">
         <v>158</v>
       </c>
       <c r="Y12" s="27">
@@ -4141,13 +4357,34 @@
       <c r="B13" s="26">
         <v>0.25</v>
       </c>
-      <c r="G13">
+      <c r="J13" s="30"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="29"/>
+      <c r="S13" s="31">
         <v>16</v>
       </c>
-      <c r="U13">
+      <c r="T13" s="39"/>
+      <c r="U13" s="35">
         <v>21</v>
       </c>
-      <c r="X13" s="28"/>
+      <c r="V13" s="39">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="W13" s="29"/>
+      <c r="X13" s="34"/>
       <c r="Z13" s="25">
         <v>0</v>
       </c>
@@ -4317,7 +4554,30 @@
       <c r="B14" s="26">
         <v>0.15</v>
       </c>
-      <c r="X14" s="28"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="29"/>
+      <c r="X14" s="34"/>
       <c r="Z14" s="25">
         <v>0</v>
       </c>
@@ -4454,7 +4714,30 @@
       <c r="B15" s="26">
         <v>0.15</v>
       </c>
-      <c r="X15" s="28"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="39"/>
+      <c r="V15" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="29"/>
+      <c r="X15" s="34"/>
       <c r="Z15" s="25">
         <v>0</v>
       </c>
@@ -4591,7 +4874,30 @@
       <c r="B16" s="26">
         <v>0.15</v>
       </c>
-      <c r="X16" s="28"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="29"/>
+      <c r="X16" s="34"/>
       <c r="Z16" s="25">
         <v>0</v>
       </c>
@@ -4728,7 +5034,30 @@
       <c r="B17" s="26">
         <v>1</v>
       </c>
-      <c r="X17" s="28"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="29"/>
+      <c r="X17" s="34"/>
       <c r="Z17" s="25">
         <v>0</v>
       </c>
@@ -4865,7 +5194,30 @@
       <c r="B18" s="26">
         <v>1</v>
       </c>
-      <c r="X18" s="28"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="29"/>
+      <c r="X18" s="34"/>
       <c r="Z18" s="25">
         <v>0</v>
       </c>
@@ -5002,7 +5354,30 @@
       <c r="B19" s="26">
         <v>1</v>
       </c>
-      <c r="X19" s="28"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="29"/>
+      <c r="X19" s="34"/>
       <c r="Z19" s="25">
         <v>0</v>
       </c>
@@ -5139,7 +5514,30 @@
       <c r="B20" s="26">
         <v>1</v>
       </c>
-      <c r="X20" s="28"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="29"/>
+      <c r="X20" s="34"/>
       <c r="Z20" s="25">
         <v>0</v>
       </c>
@@ -5276,7 +5674,30 @@
       <c r="B21" s="26">
         <v>1</v>
       </c>
-      <c r="X21" s="28"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="29"/>
+      <c r="X21" s="34"/>
       <c r="Z21" s="25">
         <v>0</v>
       </c>
@@ -5462,19 +5883,40 @@
       <c r="B22" s="26">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>98</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="27">
+        <v>94.708600000000004</v>
+      </c>
+      <c r="J22" s="30"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="29"/>
+      <c r="S22" s="31">
         <v>4</v>
       </c>
-      <c r="L22" s="27">
-        <v>94.708600000000004</v>
-      </c>
-      <c r="U22">
+      <c r="T22" s="39"/>
+      <c r="U22" s="35">
         <v>5</v>
       </c>
-      <c r="X22" s="28"/>
+      <c r="V22" s="39">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W22" s="29"/>
+      <c r="X22" s="34"/>
       <c r="Z22" s="25">
         <v>0</v>
       </c>
@@ -5690,28 +6132,49 @@
       <c r="B23" s="26">
         <v>0.25</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="G23" s="27">
+        <v>14</v>
+      </c>
+      <c r="J23" s="30"/>
+      <c r="K23" s="35">
+        <v>7</v>
+      </c>
+      <c r="L23" s="40">
+        <f t="shared" si="3"/>
+        <v>-7</v>
+      </c>
+      <c r="M23" s="29">
+        <f>-1*L23*B23</f>
+        <v>1.75</v>
+      </c>
+      <c r="N23" s="31">
         <v>8</v>
       </c>
-      <c r="G23">
+      <c r="O23" s="39"/>
+      <c r="P23" s="35">
         <v>8</v>
       </c>
-      <c r="L23" s="27">
-        <v>14</v>
-      </c>
-      <c r="O23">
-        <v>7</v>
-      </c>
-      <c r="R23">
+      <c r="Q23" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="29"/>
+      <c r="S23" s="31">
         <v>8</v>
       </c>
-      <c r="U23">
+      <c r="T23" s="39"/>
+      <c r="U23" s="35">
         <v>6</v>
       </c>
-      <c r="X23" s="28"/>
+      <c r="V23" s="39">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W23" s="29"/>
+      <c r="X23" s="34"/>
       <c r="Z23" s="25">
         <v>0</v>
       </c>
@@ -5909,10 +6372,33 @@
       <c r="B24" s="26">
         <v>0.4</v>
       </c>
-      <c r="I24">
+      <c r="C24">
         <v>28</v>
       </c>
-      <c r="X24" s="31">
+      <c r="J24" s="30"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="29"/>
+      <c r="X24" s="35">
         <v>18</v>
       </c>
       <c r="Y24" s="27">
@@ -6128,33 +6614,50 @@
         <v>1</v>
       </c>
       <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="F25">
         <v>85</v>
       </c>
-      <c r="D25">
+      <c r="G25" s="27">
+        <v>82.756999999999977</v>
+      </c>
+      <c r="J25" s="31">
         <v>55</v>
       </c>
-      <c r="E25">
+      <c r="K25" s="35">
+        <v>51</v>
+      </c>
+      <c r="L25" s="39">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="31">
         <v>25</v>
       </c>
-      <c r="G25">
+      <c r="O25" s="39"/>
+      <c r="P25" s="35">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R25" s="29"/>
+      <c r="S25" s="31">
         <v>175</v>
       </c>
-      <c r="I25">
-        <v>51</v>
-      </c>
-      <c r="L25" s="27">
-        <v>82.756999999999977</v>
-      </c>
-      <c r="O25">
-        <v>51</v>
-      </c>
-      <c r="R25">
-        <v>23</v>
-      </c>
-      <c r="U25">
+      <c r="T25" s="39"/>
+      <c r="U25" s="35">
         <v>171</v>
       </c>
-      <c r="X25" s="28"/>
+      <c r="V25" s="39">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="W25" s="29"/>
+      <c r="X25" s="34"/>
       <c r="Z25" s="25">
         <v>0</v>
       </c>
@@ -6386,19 +6889,38 @@
       <c r="B26" s="26">
         <v>0.12</v>
       </c>
-      <c r="D26">
+      <c r="J26" s="31">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="K26" s="35">
+        <v>30</v>
+      </c>
+      <c r="L26" s="39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="31">
         <v>48</v>
       </c>
-      <c r="O26">
-        <v>30</v>
-      </c>
-      <c r="R26">
+      <c r="O26" s="39"/>
+      <c r="P26" s="35">
         <v>52</v>
       </c>
-      <c r="X26" s="31">
+      <c r="Q26" s="39">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="R26" s="29"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="29"/>
+      <c r="X26" s="35">
         <v>32</v>
       </c>
       <c r="Y26" s="27">
@@ -6596,7 +7118,30 @@
       <c r="B27" s="26">
         <v>1</v>
       </c>
-      <c r="X27" s="28"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="29"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="39"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="29"/>
+      <c r="X27" s="34"/>
       <c r="Z27" s="25">
         <v>0</v>
       </c>
@@ -6765,13 +7310,36 @@
       <c r="B28" s="26">
         <v>0.25</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>8</v>
       </c>
-      <c r="L28" s="27">
+      <c r="G28" s="27">
         <v>8.6000000000000014</v>
       </c>
-      <c r="X28" s="28"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="29"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="29"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="29"/>
+      <c r="X28" s="34"/>
       <c r="Z28" s="25">
         <v>0</v>
       </c>
@@ -6940,7 +7508,30 @@
       <c r="B29" s="26">
         <v>1</v>
       </c>
-      <c r="X29" s="28"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="29"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="29"/>
+      <c r="X29" s="34"/>
       <c r="Z29" s="25">
         <v>0</v>
       </c>
@@ -7117,22 +7708,41 @@
       <c r="B30" s="26">
         <v>0.4</v>
       </c>
-      <c r="D30">
+      <c r="C30">
+        <v>48</v>
+      </c>
+      <c r="J30" s="31">
         <v>32</v>
       </c>
-      <c r="E30">
+      <c r="K30" s="35">
+        <v>30</v>
+      </c>
+      <c r="L30" s="39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="31">
         <v>8</v>
       </c>
-      <c r="I30">
-        <v>48</v>
-      </c>
-      <c r="O30">
-        <v>30</v>
-      </c>
-      <c r="R30">
+      <c r="O30" s="39"/>
+      <c r="P30" s="35">
         <v>9</v>
       </c>
-      <c r="X30" s="31">
+      <c r="Q30" s="39">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R30" s="29"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="39"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="29"/>
+      <c r="X30" s="35">
         <v>48</v>
       </c>
       <c r="Y30" s="27">
@@ -7337,7 +7947,30 @@
       <c r="B31" s="26">
         <v>1</v>
       </c>
-      <c r="X31" s="28"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="29"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="29"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="29"/>
+      <c r="X31" s="34"/>
       <c r="Z31" s="25">
         <v>0</v>
       </c>
@@ -7475,27 +8108,46 @@
         <v>1</v>
       </c>
       <c r="C32">
+        <v>74</v>
+      </c>
+      <c r="F32">
         <v>151</v>
       </c>
-      <c r="D32">
+      <c r="G32" s="27">
+        <v>149.68299999999999</v>
+      </c>
+      <c r="J32" s="31">
         <v>139</v>
       </c>
-      <c r="E32">
+      <c r="K32" s="35">
+        <v>139</v>
+      </c>
+      <c r="L32" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="29"/>
+      <c r="N32" s="31">
         <v>66</v>
       </c>
-      <c r="I32">
-        <v>74</v>
-      </c>
-      <c r="L32" s="27">
-        <v>149.68299999999999</v>
-      </c>
-      <c r="O32">
-        <v>139</v>
-      </c>
-      <c r="R32">
+      <c r="O32" s="39"/>
+      <c r="P32" s="35">
         <v>66</v>
       </c>
-      <c r="X32" s="31">
+      <c r="Q32" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="29"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="29"/>
+      <c r="X32" s="35">
         <v>94</v>
       </c>
       <c r="Y32" s="27">
@@ -7761,13 +8413,34 @@
       <c r="B33" s="26">
         <v>0.22</v>
       </c>
-      <c r="G33">
+      <c r="J33" s="30"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="29"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="29"/>
+      <c r="S33" s="31">
         <v>72</v>
       </c>
-      <c r="U33">
+      <c r="T33" s="39"/>
+      <c r="U33" s="35">
         <v>73</v>
       </c>
-      <c r="X33" s="31">
+      <c r="V33" s="39">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="W33" s="29"/>
+      <c r="X33" s="35">
         <v>64</v>
       </c>
       <c r="Y33" s="27">
@@ -7958,7 +8631,30 @@
       <c r="B34" s="26">
         <v>1</v>
       </c>
-      <c r="X34" s="28"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="29"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="29"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="29"/>
+      <c r="X34" s="34"/>
       <c r="Z34" s="25">
         <v>0</v>
       </c>
@@ -8095,7 +8791,30 @@
       <c r="B35" s="26">
         <v>0.4</v>
       </c>
-      <c r="X35" s="28"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="29"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="29"/>
+      <c r="X35" s="34"/>
       <c r="Z35" s="25">
         <v>0</v>
       </c>
@@ -8232,7 +8951,30 @@
       <c r="B36" s="26">
         <v>1</v>
       </c>
-      <c r="X36" s="28"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="29"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="29"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="29"/>
+      <c r="X36" s="34"/>
       <c r="Z36" s="25">
         <v>0</v>
       </c>
@@ -8369,7 +9111,30 @@
       <c r="B37" s="26">
         <v>1</v>
       </c>
-      <c r="X37" s="28"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="29"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="29"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="29"/>
+      <c r="X37" s="34"/>
       <c r="Z37" s="25">
         <v>0</v>
       </c>
@@ -8506,7 +9271,30 @@
       <c r="B38" s="26">
         <v>0.4</v>
       </c>
-      <c r="X38" s="28"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="29"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="29"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="29"/>
+      <c r="X38" s="34"/>
       <c r="Z38" s="25">
         <v>0</v>
       </c>
@@ -8643,7 +9431,30 @@
       <c r="B39" s="26">
         <v>0.33</v>
       </c>
-      <c r="X39" s="28"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="29"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="29"/>
+      <c r="X39" s="34"/>
       <c r="Z39" s="25">
         <v>0</v>
       </c>
@@ -8809,7 +9620,30 @@
       <c r="B40" s="26">
         <v>1</v>
       </c>
-      <c r="X40" s="28"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="29"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="29"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="29"/>
+      <c r="X40" s="34"/>
       <c r="Z40" s="25">
         <v>0</v>
       </c>
@@ -8954,7 +9788,30 @@
       <c r="B41" s="26">
         <v>1</v>
       </c>
-      <c r="X41" s="28"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="29"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="29"/>
+      <c r="X41" s="34"/>
       <c r="Z41" s="25">
         <v>0</v>
       </c>
@@ -9091,7 +9948,30 @@
       <c r="B42" s="26">
         <v>0.36</v>
       </c>
-      <c r="X42" s="28"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="29"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="29"/>
+      <c r="X42" s="34"/>
       <c r="Z42" s="25">
         <v>0</v>
       </c>
@@ -9228,7 +10108,30 @@
       <c r="B43" s="26">
         <v>0.3</v>
       </c>
-      <c r="X43" s="28"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="29"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="39"/>
+      <c r="U43" s="39"/>
+      <c r="V43" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="29"/>
+      <c r="X43" s="34"/>
       <c r="Z43" s="25">
         <v>0</v>
       </c>
@@ -9394,7 +10297,30 @@
       <c r="B44" s="26">
         <v>0.35</v>
       </c>
-      <c r="X44" s="28"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="29"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="29"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="39"/>
+      <c r="U44" s="39"/>
+      <c r="V44" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="29"/>
+      <c r="X44" s="34"/>
       <c r="Z44" s="25">
         <v>0</v>
       </c>
@@ -9531,7 +10457,30 @@
       <c r="B45" s="26">
         <v>1</v>
       </c>
-      <c r="X45" s="28"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="29"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="39"/>
+      <c r="U45" s="39"/>
+      <c r="V45" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="29"/>
+      <c r="X45" s="34"/>
       <c r="Z45" s="25">
         <v>0</v>
       </c>
@@ -9668,16 +10617,37 @@
       <c r="B46" s="26">
         <v>0.09</v>
       </c>
-      <c r="G46">
+      <c r="C46">
+        <v>33</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="29"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="29"/>
+      <c r="S46" s="31">
         <v>30</v>
       </c>
-      <c r="I46">
-        <v>33</v>
-      </c>
-      <c r="U46">
+      <c r="T46" s="39"/>
+      <c r="U46" s="35">
         <v>29</v>
       </c>
-      <c r="X46" s="31">
+      <c r="V46" s="39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W46" s="29"/>
+      <c r="X46" s="35">
         <v>30</v>
       </c>
       <c r="Y46" s="27">
@@ -9890,7 +10860,30 @@
       <c r="B47" s="26">
         <v>0.3</v>
       </c>
-      <c r="X47" s="28"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="29"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="29"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="29"/>
+      <c r="X47" s="34"/>
       <c r="Z47" s="25">
         <v>0</v>
       </c>
@@ -10027,7 +11020,30 @@
       <c r="B48" s="26">
         <v>0.27</v>
       </c>
-      <c r="X48" s="28"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="29"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="29"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="29"/>
+      <c r="X48" s="34"/>
       <c r="Z48" s="25">
         <v>0</v>
       </c>
@@ -10165,21 +11181,42 @@
         <v>1</v>
       </c>
       <c r="C49">
+        <v>67</v>
+      </c>
+      <c r="F49">
         <v>135</v>
       </c>
-      <c r="D49">
+      <c r="G49" s="27">
+        <v>131.45339999999999</v>
+      </c>
+      <c r="J49" s="31">
         <v>100</v>
       </c>
-      <c r="I49">
-        <v>67</v>
-      </c>
-      <c r="L49" s="27">
-        <v>131.45339999999999</v>
-      </c>
-      <c r="O49">
+      <c r="K49" s="35">
         <v>96</v>
       </c>
-      <c r="X49" s="28"/>
+      <c r="L49" s="39">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="29"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="29"/>
+      <c r="X49" s="34"/>
       <c r="Z49" s="25">
         <v>0</v>
       </c>
@@ -10406,7 +11443,30 @@
       <c r="B50" s="26">
         <v>1</v>
       </c>
-      <c r="X50" s="28"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="29"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="29"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="29"/>
+      <c r="X50" s="34"/>
       <c r="Z50" s="25">
         <v>0</v>
       </c>
@@ -10543,19 +11603,38 @@
       <c r="B51" s="26">
         <v>0.4</v>
       </c>
-      <c r="D51">
+      <c r="J51" s="31">
         <v>32</v>
       </c>
-      <c r="G51">
+      <c r="K51" s="35">
+        <v>32</v>
+      </c>
+      <c r="L51" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="29"/>
+      <c r="S51" s="31">
         <v>16</v>
       </c>
-      <c r="O51">
-        <v>32</v>
-      </c>
-      <c r="U51">
+      <c r="T51" s="39"/>
+      <c r="U51" s="35">
         <v>20</v>
       </c>
-      <c r="X51" s="28"/>
+      <c r="V51" s="39">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="W51" s="29"/>
+      <c r="X51" s="34"/>
       <c r="Z51" s="25">
         <v>0</v>
       </c>
@@ -10658,7 +11737,30 @@
       <c r="B52" s="26">
         <v>0.5</v>
       </c>
-      <c r="X52" s="28"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="29"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="29"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="29"/>
+      <c r="X52" s="34"/>
       <c r="Z52" s="25">
         <v>0</v>
       </c>
@@ -10795,19 +11897,40 @@
       <c r="B53" s="26">
         <v>0.4</v>
       </c>
-      <c r="C53">
+      <c r="F53">
         <v>120</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="27">
+        <v>122</v>
+      </c>
+      <c r="J53" s="30"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="29"/>
+      <c r="S53" s="31">
         <v>96</v>
       </c>
-      <c r="L53" s="27">
-        <v>122</v>
-      </c>
-      <c r="U53">
+      <c r="T53" s="39"/>
+      <c r="U53" s="35">
         <v>98</v>
       </c>
-      <c r="X53" s="31">
+      <c r="V53" s="39">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="W53" s="29"/>
+      <c r="X53" s="35">
         <v>112</v>
       </c>
       <c r="Y53" s="27">
@@ -11035,7 +12158,30 @@
       <c r="B54" s="26">
         <v>0.5</v>
       </c>
-      <c r="X54" s="28"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="29"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="29"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="29"/>
+      <c r="X54" s="34"/>
       <c r="Z54" s="25">
         <v>0</v>
       </c>
@@ -11180,7 +12326,30 @@
       <c r="B55" s="26">
         <v>0.5</v>
       </c>
-      <c r="X55" s="28"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="29"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="29"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="29"/>
+      <c r="X55" s="34"/>
       <c r="Z55" s="25">
         <v>0</v>
       </c>
@@ -11317,19 +12486,40 @@
       <c r="B56" s="26">
         <v>0.4</v>
       </c>
-      <c r="C56">
+      <c r="F56">
         <v>104</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="27">
+        <v>106.6</v>
+      </c>
+      <c r="J56" s="30"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="29"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="29"/>
+      <c r="S56" s="31">
         <v>80</v>
       </c>
-      <c r="L56" s="27">
-        <v>106.6</v>
-      </c>
-      <c r="U56">
+      <c r="T56" s="39"/>
+      <c r="U56" s="35">
         <v>78</v>
       </c>
-      <c r="X56" s="28"/>
+      <c r="V56" s="39">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W56" s="29"/>
+      <c r="X56" s="34"/>
       <c r="Z56" s="25">
         <v>0</v>
       </c>
@@ -11564,25 +12754,44 @@
       <c r="B57" s="26">
         <v>0.4</v>
       </c>
-      <c r="C57">
+      <c r="F57">
         <v>80</v>
       </c>
-      <c r="D57">
+      <c r="G57" s="27">
+        <v>79</v>
+      </c>
+      <c r="J57" s="31">
         <v>48</v>
       </c>
-      <c r="E57">
+      <c r="K57" s="35">
+        <v>52</v>
+      </c>
+      <c r="L57" s="39">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="M57" s="29"/>
+      <c r="N57" s="31">
         <v>24</v>
       </c>
-      <c r="L57" s="27">
-        <v>79</v>
-      </c>
-      <c r="O57">
-        <v>52</v>
-      </c>
-      <c r="R57">
+      <c r="O57" s="39"/>
+      <c r="P57" s="35">
         <v>22</v>
       </c>
-      <c r="X57" s="31">
+      <c r="Q57" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R57" s="29"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="39"/>
+      <c r="V57" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="29"/>
+      <c r="X57" s="35">
         <v>8</v>
       </c>
       <c r="Y57" s="27">
@@ -11792,7 +13001,30 @@
       <c r="B58" s="16">
         <v>0.84</v>
       </c>
-      <c r="X58" s="28"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="29"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="29"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="29"/>
+      <c r="X58" s="34"/>
       <c r="Z58" s="25">
         <v>0</v>
       </c>
@@ -11893,19 +13125,38 @@
       <c r="B59" s="26">
         <v>0.1</v>
       </c>
-      <c r="D59">
+      <c r="J59" s="31">
         <v>80</v>
       </c>
-      <c r="G59">
+      <c r="K59" s="35">
+        <v>85</v>
+      </c>
+      <c r="L59" s="39">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="M59" s="29"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="29"/>
+      <c r="S59" s="31">
         <v>70</v>
       </c>
-      <c r="O59">
-        <v>85</v>
-      </c>
-      <c r="U59">
+      <c r="T59" s="39"/>
+      <c r="U59" s="35">
         <v>68</v>
       </c>
-      <c r="X59" s="31">
+      <c r="V59" s="39">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W59" s="29"/>
+      <c r="X59" s="35">
         <v>10</v>
       </c>
       <c r="Y59" s="27">
@@ -12126,28 +13377,45 @@
       <c r="B60" s="26">
         <v>0.1</v>
       </c>
-      <c r="D60">
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="J60" s="31">
         <v>84</v>
       </c>
-      <c r="E60">
+      <c r="K60" s="35">
+        <v>88</v>
+      </c>
+      <c r="L60" s="39">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+      <c r="M60" s="29"/>
+      <c r="N60" s="31">
         <v>42</v>
       </c>
-      <c r="G60">
+      <c r="O60" s="39"/>
+      <c r="P60" s="35">
+        <v>48</v>
+      </c>
+      <c r="Q60" s="39">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="R60" s="29"/>
+      <c r="S60" s="31">
         <v>56</v>
       </c>
-      <c r="I60">
-        <v>18</v>
-      </c>
-      <c r="O60">
-        <v>88</v>
-      </c>
-      <c r="R60">
-        <v>48</v>
-      </c>
-      <c r="U60">
+      <c r="T60" s="39"/>
+      <c r="U60" s="35">
         <v>61</v>
       </c>
-      <c r="X60" s="28"/>
+      <c r="V60" s="39">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="W60" s="29"/>
+      <c r="X60" s="34"/>
       <c r="Z60" s="25">
         <v>0</v>
       </c>
@@ -12357,22 +13625,41 @@
       <c r="B61" s="26">
         <v>0.1</v>
       </c>
-      <c r="D61">
+      <c r="C61">
+        <v>32</v>
+      </c>
+      <c r="J61" s="31">
         <v>90</v>
       </c>
-      <c r="E61">
+      <c r="K61" s="35">
+        <v>90</v>
+      </c>
+      <c r="L61" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="29"/>
+      <c r="N61" s="31">
         <v>20</v>
       </c>
-      <c r="I61">
-        <v>32</v>
-      </c>
-      <c r="O61">
-        <v>90</v>
-      </c>
-      <c r="R61">
+      <c r="O61" s="39"/>
+      <c r="P61" s="35">
         <v>20</v>
       </c>
-      <c r="X61" s="31">
+      <c r="Q61" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R61" s="29"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39"/>
+      <c r="V61" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="29"/>
+      <c r="X61" s="35">
         <v>60</v>
       </c>
       <c r="Y61" s="27">
@@ -12577,21 +13864,42 @@
         <v>0.4</v>
       </c>
       <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="F62">
         <v>18</v>
       </c>
-      <c r="E62">
+      <c r="G62" s="27">
+        <v>15.8</v>
+      </c>
+      <c r="J62" s="30"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="29"/>
+      <c r="N62" s="31">
         <v>36</v>
       </c>
-      <c r="I62">
-        <v>5</v>
-      </c>
-      <c r="L62" s="27">
-        <v>15.8</v>
-      </c>
-      <c r="R62">
+      <c r="O62" s="39"/>
+      <c r="P62" s="35">
         <v>34</v>
       </c>
-      <c r="X62" s="31">
+      <c r="Q62" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R62" s="29"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39"/>
+      <c r="V62" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="29"/>
+      <c r="X62" s="35">
         <v>12</v>
       </c>
       <c r="Y62" s="27">
@@ -12817,22 +14125,41 @@
       <c r="B63" s="26">
         <v>1</v>
       </c>
-      <c r="D63">
+      <c r="C63">
+        <v>24</v>
+      </c>
+      <c r="J63" s="31">
         <v>65</v>
       </c>
-      <c r="G63">
+      <c r="K63" s="35">
+        <v>62</v>
+      </c>
+      <c r="L63" s="39">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M63" s="29"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="29"/>
+      <c r="S63" s="31">
         <v>12</v>
       </c>
-      <c r="I63">
-        <v>24</v>
-      </c>
-      <c r="O63">
-        <v>62</v>
-      </c>
-      <c r="U63">
+      <c r="T63" s="39"/>
+      <c r="U63" s="35">
         <v>10</v>
       </c>
-      <c r="X63" s="28"/>
+      <c r="V63" s="39">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="W63" s="29"/>
+      <c r="X63" s="34"/>
       <c r="Z63" s="25">
         <v>0</v>
       </c>
@@ -13003,28 +14330,45 @@
       <c r="B64" s="26">
         <v>1</v>
       </c>
-      <c r="D64">
+      <c r="C64">
+        <v>68</v>
+      </c>
+      <c r="J64" s="31">
         <v>158</v>
       </c>
-      <c r="E64">
+      <c r="K64" s="35">
+        <v>151</v>
+      </c>
+      <c r="L64" s="39">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M64" s="29"/>
+      <c r="N64" s="31">
         <v>56</v>
       </c>
-      <c r="G64">
+      <c r="O64" s="39"/>
+      <c r="P64" s="35">
+        <v>54</v>
+      </c>
+      <c r="Q64" s="39">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R64" s="29"/>
+      <c r="S64" s="31">
         <v>66</v>
       </c>
-      <c r="I64">
-        <v>68</v>
-      </c>
-      <c r="O64">
-        <v>151</v>
-      </c>
-      <c r="R64">
-        <v>54</v>
-      </c>
-      <c r="U64">
+      <c r="T64" s="39"/>
+      <c r="U64" s="35">
         <v>61</v>
       </c>
-      <c r="X64" s="28"/>
+      <c r="V64" s="39">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="W64" s="29"/>
+      <c r="X64" s="34"/>
       <c r="Z64" s="25">
         <v>0</v>
       </c>
@@ -13259,21 +14603,42 @@
         <v>1</v>
       </c>
       <c r="C65">
+        <v>113</v>
+      </c>
+      <c r="F65">
         <v>44</v>
       </c>
-      <c r="D65">
+      <c r="G65" s="27">
+        <v>40</v>
+      </c>
+      <c r="J65" s="31">
         <v>184</v>
       </c>
-      <c r="I65">
-        <v>113</v>
-      </c>
-      <c r="L65" s="27">
-        <v>40</v>
-      </c>
-      <c r="O65">
+      <c r="K65" s="35">
         <v>175</v>
       </c>
-      <c r="X65" s="28"/>
+      <c r="L65" s="39">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M65" s="29"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="29"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="29"/>
+      <c r="X65" s="34"/>
       <c r="Z65" s="25">
         <v>0</v>
       </c>
@@ -13521,7 +14886,30 @@
       <c r="B66" s="26">
         <v>0.1</v>
       </c>
-      <c r="X66" s="28"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="29"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="29"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39"/>
+      <c r="V66" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="29"/>
+      <c r="X66" s="34"/>
       <c r="Z66" s="25">
         <v>0</v>
       </c>
@@ -13658,7 +15046,30 @@
       <c r="B67" s="26">
         <v>1</v>
       </c>
-      <c r="X67" s="28"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="29"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39"/>
+      <c r="V67" s="39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="29"/>
+      <c r="X67" s="34"/>
       <c r="Z67" s="25">
         <v>0</v>
       </c>
@@ -13795,16 +15206,37 @@
       <c r="B68" s="26">
         <v>0.09</v>
       </c>
-      <c r="D68">
+      <c r="C68">
+        <v>14</v>
+      </c>
+      <c r="J68" s="31">
         <v>20</v>
       </c>
-      <c r="I68">
-        <v>14</v>
-      </c>
-      <c r="O68">
+      <c r="K68" s="35">
         <v>20</v>
       </c>
-      <c r="X68" s="31">
+      <c r="L68" s="39">
+        <f t="shared" ref="L68:L131" si="6">J68-K68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39">
+        <f t="shared" ref="Q68:Q131" si="7">N68+O68-P68</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="29"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39">
+        <f t="shared" ref="V68:V131" si="8">S68+T68-U68</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="29"/>
+      <c r="X68" s="35">
         <v>20</v>
       </c>
       <c r="Y68" s="27">
@@ -13975,7 +15407,30 @@
       <c r="B69" s="26">
         <v>1</v>
       </c>
-      <c r="X69" s="28"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="29"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="29"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W69" s="29"/>
+      <c r="X69" s="34"/>
       <c r="Z69" s="25">
         <v>0</v>
       </c>
@@ -14112,7 +15567,30 @@
       <c r="B70" s="26">
         <v>1</v>
       </c>
-      <c r="X70" s="28"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="29"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="29"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W70" s="29"/>
+      <c r="X70" s="34"/>
       <c r="Z70" s="25">
         <v>0</v>
       </c>
@@ -14249,7 +15727,30 @@
       <c r="B71" s="26">
         <v>0.35</v>
       </c>
-      <c r="X71" s="28"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="29"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="29"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="29"/>
+      <c r="X71" s="34"/>
       <c r="Z71" s="25">
         <v>0</v>
       </c>
@@ -14454,7 +15955,30 @@
       <c r="B72" s="26">
         <v>1</v>
       </c>
-      <c r="X72" s="28"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="29"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="29"/>
+      <c r="S72" s="30"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="29"/>
+      <c r="X72" s="34"/>
       <c r="Z72" s="25">
         <v>0</v>
       </c>
@@ -14592,21 +16116,42 @@
         <v>1</v>
       </c>
       <c r="C73">
+        <v>48</v>
+      </c>
+      <c r="F73">
         <v>87</v>
       </c>
-      <c r="D73">
+      <c r="G73" s="27">
+        <v>81.807799999999972</v>
+      </c>
+      <c r="J73" s="31">
         <v>126</v>
       </c>
-      <c r="I73">
-        <v>48</v>
-      </c>
-      <c r="L73" s="27">
-        <v>81.807799999999972</v>
-      </c>
-      <c r="O73">
+      <c r="K73" s="35">
         <v>123</v>
       </c>
-      <c r="X73" s="28"/>
+      <c r="L73" s="39">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="29"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="29"/>
+      <c r="X73" s="34"/>
       <c r="Z73" s="25">
         <v>0</v>
       </c>
@@ -14807,7 +16352,30 @@
       <c r="B74" s="26">
         <v>0.4</v>
       </c>
-      <c r="X74" s="28"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="29"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="29"/>
+      <c r="S74" s="30"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="39"/>
+      <c r="V74" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="29"/>
+      <c r="X74" s="34"/>
       <c r="Z74" s="25">
         <v>0</v>
       </c>
@@ -14944,16 +16512,37 @@
       <c r="B75" s="26">
         <v>0.3</v>
       </c>
-      <c r="D75">
+      <c r="C75">
+        <v>65</v>
+      </c>
+      <c r="J75" s="31">
         <v>72</v>
       </c>
-      <c r="I75">
-        <v>65</v>
-      </c>
-      <c r="O75">
+      <c r="K75" s="35">
         <v>71</v>
       </c>
-      <c r="X75" s="28"/>
+      <c r="L75" s="39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="39"/>
+      <c r="P75" s="39"/>
+      <c r="Q75" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="29"/>
+      <c r="S75" s="30"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="29"/>
+      <c r="X75" s="34"/>
       <c r="Z75" s="25">
         <v>0</v>
       </c>
@@ -15018,19 +16607,40 @@
       <c r="B76" s="26">
         <v>1</v>
       </c>
-      <c r="C76">
+      <c r="F76">
         <v>87</v>
       </c>
-      <c r="E76">
+      <c r="G76" s="27">
+        <v>78.597999999999999</v>
+      </c>
+      <c r="J76" s="30"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="29"/>
+      <c r="N76" s="31">
         <v>65</v>
       </c>
-      <c r="L76" s="27">
-        <v>78.597999999999999</v>
-      </c>
-      <c r="R76">
+      <c r="O76" s="39"/>
+      <c r="P76" s="35">
         <v>60</v>
       </c>
-      <c r="X76" s="28"/>
+      <c r="Q76" s="39">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="R76" s="29"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="29"/>
+      <c r="X76" s="34"/>
       <c r="Z76" s="25">
         <v>0</v>
       </c>
@@ -15095,7 +16705,30 @@
       <c r="B77" s="26">
         <v>1</v>
       </c>
-      <c r="X77" s="28"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="29"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="29"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="39"/>
+      <c r="V77" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="29"/>
+      <c r="X77" s="34"/>
       <c r="Z77" s="25">
         <v>0</v>
       </c>
@@ -15233,24 +16866,47 @@
         <v>1</v>
       </c>
       <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="F78">
         <v>167</v>
       </c>
-      <c r="D78">
+      <c r="G78" s="27">
+        <v>163.75200000000001</v>
+      </c>
+      <c r="J78" s="31">
         <v>153</v>
       </c>
-      <c r="I78">
-        <v>12</v>
-      </c>
-      <c r="L78" s="27">
-        <v>163.75200000000001</v>
-      </c>
-      <c r="O78">
+      <c r="K78" s="35">
         <v>150</v>
       </c>
-      <c r="U78">
+      <c r="L78" s="39">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M78" s="29"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R78" s="29"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="35">
         <v>186</v>
       </c>
-      <c r="X78" s="28"/>
+      <c r="V78" s="40">
+        <f t="shared" si="8"/>
+        <v>-186</v>
+      </c>
+      <c r="W78" s="29">
+        <f>-1*V78*B78</f>
+        <v>186</v>
+      </c>
+      <c r="X78" s="34"/>
       <c r="Z78" s="25">
         <v>0</v>
       </c>
@@ -15483,7 +17139,30 @@
       <c r="B79" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X79" s="28"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="29"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R79" s="29"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="39"/>
+      <c r="V79" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="29"/>
+      <c r="X79" s="34"/>
       <c r="Z79" s="25">
         <v>0</v>
       </c>
@@ -15653,7 +17332,30 @@
       <c r="B80" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X80" s="28"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="29"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="29"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="39"/>
+      <c r="V80" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="29"/>
+      <c r="X80" s="34"/>
       <c r="Z80" s="25">
         <v>0</v>
       </c>
@@ -15790,7 +17492,30 @@
       <c r="B81" s="26">
         <v>0.35</v>
       </c>
-      <c r="X81" s="28"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="29"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="29"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
+      <c r="V81" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="29"/>
+      <c r="X81" s="34"/>
       <c r="Z81" s="25">
         <v>0</v>
       </c>
@@ -15972,10 +17697,32 @@
       <c r="B82" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U82">
+      <c r="J82" s="30"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="29"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="29"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="35">
         <v>67</v>
       </c>
-      <c r="X82" s="28"/>
+      <c r="V82" s="39">
+        <f>S163-U82</f>
+        <v>-3</v>
+      </c>
+      <c r="W82" s="29"/>
+      <c r="X82" s="34"/>
       <c r="Y82" s="27">
         <v>190.4</v>
       </c>
@@ -16217,7 +17964,30 @@
       <c r="B83" s="26">
         <v>0.35</v>
       </c>
-      <c r="X83" s="28"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="29"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R83" s="29"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W83" s="29"/>
+      <c r="X83" s="34"/>
       <c r="Z83" s="25">
         <v>0</v>
       </c>
@@ -16410,7 +18180,30 @@
       <c r="B84" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X84" s="28"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="29"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R84" s="29"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W84" s="29"/>
+      <c r="X84" s="34"/>
       <c r="Z84" s="25">
         <v>0</v>
       </c>
@@ -16548,33 +18341,50 @@
         <v>0.35</v>
       </c>
       <c r="C85">
+        <v>8</v>
+      </c>
+      <c r="F85">
         <v>120</v>
       </c>
-      <c r="D85">
+      <c r="G85" s="27">
+        <v>123.8</v>
+      </c>
+      <c r="J85" s="31">
         <v>32</v>
       </c>
-      <c r="E85">
+      <c r="K85" s="35">
+        <v>35</v>
+      </c>
+      <c r="L85" s="39">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="M85" s="29"/>
+      <c r="N85" s="31">
         <v>152</v>
       </c>
-      <c r="G85">
+      <c r="O85" s="39"/>
+      <c r="P85" s="35">
+        <v>150</v>
+      </c>
+      <c r="Q85" s="39">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R85" s="29"/>
+      <c r="S85" s="31">
         <v>40</v>
       </c>
-      <c r="I85">
-        <v>8</v>
-      </c>
-      <c r="L85" s="27">
-        <v>123.8</v>
-      </c>
-      <c r="O85">
-        <v>35</v>
-      </c>
-      <c r="R85">
-        <v>150</v>
-      </c>
-      <c r="U85">
+      <c r="T85" s="39"/>
+      <c r="U85" s="35">
         <v>41</v>
       </c>
-      <c r="X85" s="31">
+      <c r="V85" s="39">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="W85" s="29"/>
+      <c r="X85" s="35">
         <v>112</v>
       </c>
       <c r="Y85" s="27">
@@ -16816,7 +18626,30 @@
       <c r="B86" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X86" s="28"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="29"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="29"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="29"/>
+      <c r="X86" s="34"/>
       <c r="Z86" s="25">
         <v>0</v>
       </c>
@@ -17057,33 +18890,50 @@
         <v>0.41</v>
       </c>
       <c r="C87">
+        <v>49</v>
+      </c>
+      <c r="F87">
         <v>96</v>
       </c>
-      <c r="D87">
+      <c r="G87" s="27">
+        <v>95.400000000000034</v>
+      </c>
+      <c r="J87" s="31">
         <v>208</v>
       </c>
-      <c r="E87">
+      <c r="K87" s="35">
+        <v>212</v>
+      </c>
+      <c r="L87" s="39">
+        <f t="shared" si="6"/>
+        <v>-4</v>
+      </c>
+      <c r="M87" s="29"/>
+      <c r="N87" s="31">
         <v>16</v>
       </c>
-      <c r="G87">
+      <c r="O87" s="39"/>
+      <c r="P87" s="35">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="39">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R87" s="29"/>
+      <c r="S87" s="31">
         <v>168</v>
       </c>
-      <c r="I87">
-        <v>49</v>
-      </c>
-      <c r="L87" s="27">
-        <v>95.400000000000034</v>
-      </c>
-      <c r="O87">
-        <v>212</v>
-      </c>
-      <c r="R87">
-        <v>17</v>
-      </c>
-      <c r="U87">
+      <c r="T87" s="39"/>
+      <c r="U87" s="35">
         <v>168</v>
       </c>
-      <c r="X87" s="28"/>
+      <c r="V87" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W87" s="29"/>
+      <c r="X87" s="34"/>
       <c r="Z87" s="25">
         <v>0</v>
       </c>
@@ -17332,7 +19182,30 @@
       <c r="B88" s="26">
         <v>0.5</v>
       </c>
-      <c r="X88" s="28"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="29"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="29"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W88" s="29"/>
+      <c r="X88" s="34"/>
       <c r="Z88" s="25">
         <v>0</v>
       </c>
@@ -17469,7 +19342,30 @@
       <c r="B89" s="26">
         <v>0.41</v>
       </c>
-      <c r="X89" s="28"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="29"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="29"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="29"/>
+      <c r="X89" s="34"/>
       <c r="Z89" s="25">
         <v>0</v>
       </c>
@@ -17634,7 +19530,30 @@
       <c r="B90" s="26">
         <v>0.41</v>
       </c>
-      <c r="X90" s="28"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="29"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="29"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="29"/>
+      <c r="X90" s="34"/>
       <c r="Z90" s="25">
         <v>0</v>
       </c>
@@ -17793,7 +19712,30 @@
       <c r="B91" s="26">
         <v>0.5</v>
       </c>
-      <c r="X91" s="28"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="29"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="29"/>
+      <c r="X91" s="34"/>
       <c r="Z91" s="25">
         <v>0</v>
       </c>
@@ -17930,7 +19872,30 @@
       <c r="B92" s="26">
         <v>0.41</v>
       </c>
-      <c r="X92" s="28"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="29"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R92" s="29"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W92" s="29"/>
+      <c r="X92" s="34"/>
       <c r="Z92" s="25">
         <v>0</v>
       </c>
@@ -18067,7 +20032,30 @@
       <c r="B93" s="26">
         <v>0.4</v>
       </c>
-      <c r="X93" s="28"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="29"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="29"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W93" s="29"/>
+      <c r="X93" s="34"/>
       <c r="Z93" s="25">
         <v>0</v>
       </c>
@@ -18204,7 +20192,30 @@
       <c r="B94" s="26">
         <v>1</v>
       </c>
-      <c r="X94" s="28"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="29"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="29"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="29"/>
+      <c r="X94" s="34"/>
       <c r="Z94" s="25">
         <v>0</v>
       </c>
@@ -18342,27 +20353,46 @@
         <v>0.4</v>
       </c>
       <c r="C95">
+        <v>7</v>
+      </c>
+      <c r="F95">
         <v>14</v>
       </c>
-      <c r="D95">
+      <c r="G95" s="27">
+        <v>12</v>
+      </c>
+      <c r="J95" s="31">
         <v>14</v>
       </c>
-      <c r="E95">
+      <c r="K95" s="35">
+        <v>15</v>
+      </c>
+      <c r="L95" s="39">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M95" s="29"/>
+      <c r="N95" s="31">
         <v>14</v>
       </c>
-      <c r="I95">
-        <v>7</v>
-      </c>
-      <c r="L95" s="27">
+      <c r="O95" s="39"/>
+      <c r="P95" s="35">
         <v>12</v>
       </c>
-      <c r="O95">
-        <v>15</v>
-      </c>
-      <c r="R95">
-        <v>12</v>
-      </c>
-      <c r="X95" s="31">
+      <c r="Q95" s="39">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R95" s="29"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W95" s="29"/>
+      <c r="X95" s="35">
         <v>7</v>
       </c>
       <c r="Y95" s="27">
@@ -18577,7 +20607,30 @@
       <c r="B96" s="26">
         <v>1</v>
       </c>
-      <c r="X96" s="28"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="29"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="29"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W96" s="29"/>
+      <c r="X96" s="34"/>
       <c r="Z96" s="25">
         <v>0</v>
       </c>
@@ -18714,25 +20767,44 @@
       <c r="B97" s="26">
         <v>0.41</v>
       </c>
-      <c r="C97">
+      <c r="F97">
         <v>8</v>
       </c>
-      <c r="D97">
+      <c r="G97" s="27">
+        <v>7.6000000000000014</v>
+      </c>
+      <c r="J97" s="31">
         <v>24</v>
       </c>
-      <c r="G97">
+      <c r="K97" s="35">
+        <v>22</v>
+      </c>
+      <c r="L97" s="39">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M97" s="29"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="29"/>
+      <c r="S97" s="31">
         <v>8</v>
       </c>
-      <c r="L97" s="27">
-        <v>7.6000000000000014</v>
-      </c>
-      <c r="O97">
-        <v>22</v>
-      </c>
-      <c r="U97">
+      <c r="T97" s="39"/>
+      <c r="U97" s="35">
         <v>8</v>
       </c>
-      <c r="X97" s="31">
+      <c r="V97" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W97" s="29"/>
+      <c r="X97" s="35">
         <v>8</v>
       </c>
       <c r="Y97" s="27">
@@ -18925,7 +20997,30 @@
       <c r="B98" s="26">
         <v>1</v>
       </c>
-      <c r="X98" s="28"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="29"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="29"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="29"/>
+      <c r="X98" s="34"/>
       <c r="Z98" s="25">
         <v>0</v>
       </c>
@@ -19062,31 +21157,48 @@
       <c r="B99" s="26">
         <v>0.36</v>
       </c>
-      <c r="C99">
+      <c r="F99">
         <v>24</v>
       </c>
-      <c r="D99">
+      <c r="G99" s="27">
+        <v>24.4</v>
+      </c>
+      <c r="J99" s="31">
         <v>18</v>
       </c>
-      <c r="E99">
+      <c r="K99" s="35">
+        <v>20</v>
+      </c>
+      <c r="L99" s="39">
+        <f t="shared" si="6"/>
+        <v>-2</v>
+      </c>
+      <c r="M99" s="29"/>
+      <c r="N99" s="31">
         <v>6</v>
       </c>
-      <c r="G99">
+      <c r="O99" s="39"/>
+      <c r="P99" s="35">
+        <v>6</v>
+      </c>
+      <c r="Q99" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="29"/>
+      <c r="S99" s="31">
         <v>24</v>
       </c>
-      <c r="L99" s="27">
-        <v>24.4</v>
-      </c>
-      <c r="O99">
-        <v>20</v>
-      </c>
-      <c r="R99">
-        <v>6</v>
-      </c>
-      <c r="U99">
+      <c r="T99" s="39"/>
+      <c r="U99" s="35">
         <v>26</v>
       </c>
-      <c r="X99" s="31">
+      <c r="V99" s="39">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="W99" s="29"/>
+      <c r="X99" s="35">
         <v>6</v>
       </c>
       <c r="Y99" s="27">
@@ -19330,7 +21442,30 @@
       <c r="B100" s="26">
         <v>1</v>
       </c>
-      <c r="X100" s="28"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="29"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="29"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="29"/>
+      <c r="X100" s="34"/>
       <c r="Z100" s="25">
         <v>0</v>
       </c>
@@ -19467,19 +21602,38 @@
       <c r="B101" s="26">
         <v>0.41</v>
       </c>
-      <c r="D101">
+      <c r="J101" s="31">
         <v>36</v>
       </c>
-      <c r="G101">
+      <c r="K101" s="35">
+        <v>36</v>
+      </c>
+      <c r="L101" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="29"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="29"/>
+      <c r="S101" s="31">
         <v>18</v>
       </c>
-      <c r="O101">
-        <v>36</v>
-      </c>
-      <c r="U101">
+      <c r="T101" s="39"/>
+      <c r="U101" s="35">
         <v>18</v>
       </c>
-      <c r="X101" s="31">
+      <c r="V101" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="29"/>
+      <c r="X101" s="35">
         <v>6</v>
       </c>
       <c r="Y101" s="27">
@@ -19694,7 +21848,30 @@
       <c r="B102" s="26">
         <v>1</v>
       </c>
-      <c r="X102" s="28"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="29"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="29"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="39"/>
+      <c r="U102" s="39"/>
+      <c r="V102" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W102" s="29"/>
+      <c r="X102" s="34"/>
       <c r="Z102" s="25">
         <v>0</v>
       </c>
@@ -19831,13 +22008,34 @@
       <c r="B103" s="26">
         <v>0.41</v>
       </c>
-      <c r="D103">
+      <c r="J103" s="31">
         <v>18</v>
       </c>
-      <c r="O103">
+      <c r="K103" s="35">
         <v>17</v>
       </c>
-      <c r="X103" s="28"/>
+      <c r="L103" s="39">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M103" s="29"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="29"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="39"/>
+      <c r="U103" s="39"/>
+      <c r="V103" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W103" s="29"/>
+      <c r="X103" s="34"/>
       <c r="Z103" s="25">
         <v>0</v>
       </c>
@@ -20049,7 +22247,30 @@
       <c r="B104" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X104" s="28"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="29"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="29"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="39"/>
+      <c r="U104" s="39"/>
+      <c r="V104" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W104" s="29"/>
+      <c r="X104" s="34"/>
       <c r="Z104" s="25">
         <v>0</v>
       </c>
@@ -20248,7 +22469,30 @@
       <c r="B105" s="26">
         <v>0.35</v>
       </c>
-      <c r="X105" s="28"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="29"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="29"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="39"/>
+      <c r="U105" s="39"/>
+      <c r="V105" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="29"/>
+      <c r="X105" s="34"/>
       <c r="Z105" s="25">
         <v>0</v>
       </c>
@@ -20385,7 +22629,30 @@
       <c r="B106" s="26">
         <v>0.4</v>
       </c>
-      <c r="X106" s="28"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="29"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="29"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="39"/>
+      <c r="U106" s="39"/>
+      <c r="V106" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="29"/>
+      <c r="X106" s="34"/>
       <c r="Z106" s="25">
         <v>0</v>
       </c>
@@ -20549,7 +22816,30 @@
       <c r="B107" s="26">
         <v>0.16</v>
       </c>
-      <c r="X107" s="28"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="29"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="29"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="39"/>
+      <c r="U107" s="39"/>
+      <c r="V107" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="29"/>
+      <c r="X107" s="34"/>
       <c r="Z107" s="25">
         <v>0</v>
       </c>
@@ -20686,7 +22976,30 @@
       <c r="B108" s="26">
         <v>0.5</v>
       </c>
-      <c r="X108" s="28"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="29"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
+      <c r="Q108" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="29"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="39"/>
+      <c r="U108" s="39"/>
+      <c r="V108" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="29"/>
+      <c r="X108" s="34"/>
       <c r="Z108" s="25">
         <v>0</v>
       </c>
@@ -20823,16 +23136,37 @@
       <c r="B109" s="26">
         <v>0.33</v>
       </c>
-      <c r="D109">
+      <c r="C109">
+        <v>14</v>
+      </c>
+      <c r="J109" s="31">
         <v>24</v>
       </c>
-      <c r="I109">
-        <v>14</v>
-      </c>
-      <c r="O109">
+      <c r="K109" s="35">
         <v>24</v>
       </c>
-      <c r="X109" s="31">
+      <c r="L109" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="29"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="29"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="39"/>
+      <c r="U109" s="39"/>
+      <c r="V109" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="29"/>
+      <c r="X109" s="35">
         <v>32</v>
       </c>
       <c r="Y109" s="27">
@@ -20997,7 +23331,30 @@
       <c r="B110" s="26">
         <v>1</v>
       </c>
-      <c r="X110" s="28"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="29"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="29"/>
+      <c r="S110" s="30"/>
+      <c r="T110" s="39"/>
+      <c r="U110" s="39"/>
+      <c r="V110" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="29"/>
+      <c r="X110" s="34"/>
       <c r="Z110" s="25">
         <v>0</v>
       </c>
@@ -21134,25 +23491,44 @@
       <c r="B111" s="26">
         <v>0.33</v>
       </c>
-      <c r="C111">
+      <c r="F111">
         <v>8</v>
       </c>
-      <c r="E111">
+      <c r="G111" s="27">
         <v>8</v>
       </c>
-      <c r="G111">
+      <c r="J111" s="30"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="29"/>
+      <c r="N111" s="31">
         <v>8</v>
       </c>
-      <c r="L111" s="27">
+      <c r="O111" s="39"/>
+      <c r="P111" s="35">
         <v>8</v>
       </c>
-      <c r="R111">
+      <c r="Q111" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="29"/>
+      <c r="S111" s="31">
         <v>8</v>
       </c>
-      <c r="U111">
+      <c r="T111" s="39"/>
+      <c r="U111" s="35">
         <v>8</v>
       </c>
-      <c r="X111" s="28"/>
+      <c r="V111" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W111" s="29"/>
+      <c r="X111" s="34"/>
       <c r="Z111" s="25">
         <v>0</v>
       </c>
@@ -21322,7 +23698,30 @@
       <c r="B112" s="26">
         <v>1</v>
       </c>
-      <c r="X112" s="28"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="29"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="29"/>
+      <c r="S112" s="30"/>
+      <c r="T112" s="39"/>
+      <c r="U112" s="39"/>
+      <c r="V112" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="29"/>
+      <c r="X112" s="34"/>
       <c r="Z112" s="25">
         <v>0</v>
       </c>
@@ -21460,33 +23859,50 @@
         <v>0.33</v>
       </c>
       <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="F113">
         <v>8</v>
       </c>
-      <c r="D113">
+      <c r="G113" s="27">
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="J113" s="31">
         <v>16</v>
       </c>
-      <c r="E113">
+      <c r="K113" s="35">
+        <v>16</v>
+      </c>
+      <c r="L113" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="29"/>
+      <c r="N113" s="31">
         <v>32</v>
       </c>
-      <c r="G113">
+      <c r="O113" s="39"/>
+      <c r="P113" s="35">
+        <v>32</v>
+      </c>
+      <c r="Q113" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="29"/>
+      <c r="S113" s="31">
         <v>24</v>
       </c>
-      <c r="I113">
-        <v>7</v>
-      </c>
-      <c r="L113" s="27">
-        <v>7.8000000000000043</v>
-      </c>
-      <c r="O113">
-        <v>16</v>
-      </c>
-      <c r="R113">
-        <v>32</v>
-      </c>
-      <c r="U113">
+      <c r="T113" s="39"/>
+      <c r="U113" s="35">
         <v>28</v>
       </c>
-      <c r="X113" s="28"/>
+      <c r="V113" s="39">
+        <f t="shared" si="8"/>
+        <v>-4</v>
+      </c>
+      <c r="W113" s="29"/>
+      <c r="X113" s="34"/>
       <c r="Z113" s="25">
         <v>0</v>
       </c>
@@ -21695,7 +24111,30 @@
       <c r="B114" s="26">
         <v>1</v>
       </c>
-      <c r="X114" s="28"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="29"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="29"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="39"/>
+      <c r="U114" s="39"/>
+      <c r="V114" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="29"/>
+      <c r="X114" s="34"/>
       <c r="Z114" s="25">
         <v>0</v>
       </c>
@@ -21863,7 +24302,30 @@
       <c r="B115" s="26">
         <v>0.33</v>
       </c>
-      <c r="X115" s="28"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="29"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="39"/>
+      <c r="P115" s="39"/>
+      <c r="Q115" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R115" s="29"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="39"/>
+      <c r="U115" s="39"/>
+      <c r="V115" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="29"/>
+      <c r="X115" s="34"/>
       <c r="Z115" s="25">
         <v>0</v>
       </c>
@@ -22018,7 +24480,30 @@
       <c r="B116" s="26">
         <v>1</v>
       </c>
-      <c r="X116" s="28"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="29"/>
+      <c r="N116" s="30"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R116" s="29"/>
+      <c r="S116" s="30"/>
+      <c r="T116" s="39"/>
+      <c r="U116" s="39"/>
+      <c r="V116" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="29"/>
+      <c r="X116" s="34"/>
       <c r="Z116" s="25">
         <v>0</v>
       </c>
@@ -22155,7 +24640,30 @@
       <c r="B117" s="26">
         <v>0.75</v>
       </c>
-      <c r="X117" s="28"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="29"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="39"/>
+      <c r="Q117" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R117" s="29"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="39"/>
+      <c r="U117" s="39"/>
+      <c r="V117" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="29"/>
+      <c r="X117" s="34"/>
       <c r="Z117" s="25">
         <v>0</v>
       </c>
@@ -22292,7 +24800,30 @@
       <c r="B118" s="26">
         <v>0.66</v>
       </c>
-      <c r="X118" s="28"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="29"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R118" s="29"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="39"/>
+      <c r="U118" s="39"/>
+      <c r="V118" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="29"/>
+      <c r="X118" s="34"/>
       <c r="Z118" s="25">
         <v>0</v>
       </c>
@@ -22429,7 +24960,30 @@
       <c r="B119" s="26">
         <v>0.66</v>
       </c>
-      <c r="X119" s="28"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="29"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
+      <c r="Q119" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="29"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="39"/>
+      <c r="U119" s="39"/>
+      <c r="V119" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="29"/>
+      <c r="X119" s="34"/>
       <c r="Z119" s="25">
         <v>0</v>
       </c>
@@ -22566,7 +25120,30 @@
       <c r="B120" s="26">
         <v>0.66</v>
       </c>
-      <c r="X120" s="28"/>
+      <c r="J120" s="30"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="29"/>
+      <c r="N120" s="30"/>
+      <c r="O120" s="39"/>
+      <c r="P120" s="39"/>
+      <c r="Q120" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="29"/>
+      <c r="S120" s="30"/>
+      <c r="T120" s="39"/>
+      <c r="U120" s="39"/>
+      <c r="V120" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="29"/>
+      <c r="X120" s="34"/>
       <c r="Z120" s="25">
         <v>0</v>
       </c>
@@ -22704,27 +25281,46 @@
         <v>0.33</v>
       </c>
       <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="F121">
         <v>16</v>
       </c>
-      <c r="E121">
+      <c r="G121" s="27">
+        <v>19</v>
+      </c>
+      <c r="J121" s="30"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="29"/>
+      <c r="N121" s="31">
         <v>8</v>
       </c>
-      <c r="G121">
+      <c r="O121" s="39"/>
+      <c r="P121" s="35">
         <v>8</v>
       </c>
-      <c r="I121">
+      <c r="Q121" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="29"/>
+      <c r="S121" s="31">
         <v>8</v>
       </c>
-      <c r="L121" s="27">
-        <v>19</v>
-      </c>
-      <c r="R121">
+      <c r="T121" s="39"/>
+      <c r="U121" s="35">
         <v>8</v>
       </c>
-      <c r="U121">
-        <v>8</v>
-      </c>
-      <c r="X121" s="31">
+      <c r="V121" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W121" s="29"/>
+      <c r="X121" s="35">
         <v>16</v>
       </c>
       <c r="Y121" s="27">
@@ -22910,19 +25506,40 @@
       <c r="B122" s="26">
         <v>0.36</v>
       </c>
-      <c r="C122">
+      <c r="F122">
         <v>16</v>
       </c>
-      <c r="D122">
+      <c r="G122" s="27">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J122" s="31">
         <v>16</v>
       </c>
-      <c r="L122" s="27">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="O122">
+      <c r="K122" s="35">
         <v>21</v>
       </c>
-      <c r="X122" s="28"/>
+      <c r="L122" s="39">
+        <f t="shared" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="M122" s="29"/>
+      <c r="N122" s="30"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="39"/>
+      <c r="Q122" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="29"/>
+      <c r="S122" s="30"/>
+      <c r="T122" s="39"/>
+      <c r="U122" s="39"/>
+      <c r="V122" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="29"/>
+      <c r="X122" s="34"/>
       <c r="Z122" s="25">
         <v>0</v>
       </c>
@@ -23139,7 +25756,30 @@
       <c r="B123" s="26">
         <v>0.15</v>
       </c>
-      <c r="X123" s="28"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="29"/>
+      <c r="N123" s="30"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="39"/>
+      <c r="Q123" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="29"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="39"/>
+      <c r="U123" s="39"/>
+      <c r="V123" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="29"/>
+      <c r="X123" s="34"/>
       <c r="Z123" s="25">
         <v>0</v>
       </c>
@@ -23276,7 +25916,30 @@
       <c r="B124" s="26">
         <v>0.15</v>
       </c>
-      <c r="X124" s="28"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="29"/>
+      <c r="N124" s="30"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="39"/>
+      <c r="Q124" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="29"/>
+      <c r="S124" s="30"/>
+      <c r="T124" s="39"/>
+      <c r="U124" s="39"/>
+      <c r="V124" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W124" s="29"/>
+      <c r="X124" s="34"/>
       <c r="Z124" s="25">
         <v>0</v>
       </c>
@@ -23413,7 +26076,30 @@
       <c r="B125" s="26">
         <v>0.15</v>
       </c>
-      <c r="X125" s="28"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="29"/>
+      <c r="N125" s="30"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
+      <c r="Q125" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="29"/>
+      <c r="S125" s="30"/>
+      <c r="T125" s="39"/>
+      <c r="U125" s="39"/>
+      <c r="V125" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W125" s="29"/>
+      <c r="X125" s="34"/>
       <c r="Z125" s="25">
         <v>0</v>
       </c>
@@ -23551,21 +26237,42 @@
         <v>1</v>
       </c>
       <c r="C126">
+        <v>31</v>
+      </c>
+      <c r="F126">
         <v>25</v>
       </c>
-      <c r="D126">
+      <c r="G126" s="27">
+        <v>27.744800000000001</v>
+      </c>
+      <c r="J126" s="31">
         <v>344</v>
       </c>
-      <c r="I126">
-        <v>31</v>
-      </c>
-      <c r="L126" s="27">
-        <v>27.744800000000001</v>
-      </c>
-      <c r="O126">
+      <c r="K126" s="35">
         <v>345</v>
       </c>
-      <c r="X126" s="28"/>
+      <c r="L126" s="39">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="M126" s="29"/>
+      <c r="N126" s="30"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="39"/>
+      <c r="Q126" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="29"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="39"/>
+      <c r="U126" s="39"/>
+      <c r="V126" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="29"/>
+      <c r="X126" s="34"/>
       <c r="Z126" s="25">
         <v>0</v>
       </c>
@@ -23823,7 +26530,30 @@
       <c r="B127" s="26">
         <v>0.1</v>
       </c>
-      <c r="X127" s="28"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="29"/>
+      <c r="N127" s="30"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="39"/>
+      <c r="Q127" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="29"/>
+      <c r="S127" s="30"/>
+      <c r="T127" s="39"/>
+      <c r="U127" s="39"/>
+      <c r="V127" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W127" s="29"/>
+      <c r="X127" s="34"/>
       <c r="Z127" s="25">
         <v>0</v>
       </c>
@@ -23983,7 +26713,30 @@
       <c r="B128" s="26">
         <v>1</v>
       </c>
-      <c r="X128" s="28"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="29"/>
+      <c r="N128" s="30"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="39"/>
+      <c r="Q128" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="29"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="39"/>
+      <c r="U128" s="39"/>
+      <c r="V128" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="29"/>
+      <c r="X128" s="34"/>
       <c r="Z128" s="25">
         <v>0</v>
       </c>
@@ -24120,7 +26873,30 @@
       <c r="B129" s="26">
         <v>1</v>
       </c>
-      <c r="X129" s="28"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="29"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="39"/>
+      <c r="Q129" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="29"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="39"/>
+      <c r="U129" s="39"/>
+      <c r="V129" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="29"/>
+      <c r="X129" s="34"/>
       <c r="Z129" s="25">
         <v>0</v>
       </c>
@@ -24257,13 +27033,34 @@
       <c r="B130" s="26">
         <v>1</v>
       </c>
-      <c r="D130">
+      <c r="J130" s="31">
         <v>6</v>
       </c>
-      <c r="O130">
+      <c r="K130" s="35">
         <v>6</v>
       </c>
-      <c r="X130" s="28"/>
+      <c r="L130" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="29"/>
+      <c r="N130" s="30"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="39"/>
+      <c r="Q130" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="29"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="39"/>
+      <c r="U130" s="39"/>
+      <c r="V130" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W130" s="29"/>
+      <c r="X130" s="34"/>
       <c r="Z130" s="25">
         <v>0</v>
       </c>
@@ -24392,7 +27189,30 @@
       <c r="B131" s="26">
         <v>1</v>
       </c>
-      <c r="X131" s="28"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="29"/>
+      <c r="N131" s="30"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="39"/>
+      <c r="Q131" s="39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="29"/>
+      <c r="S131" s="30"/>
+      <c r="T131" s="39"/>
+      <c r="U131" s="39"/>
+      <c r="V131" s="39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W131" s="29"/>
+      <c r="X131" s="34"/>
       <c r="Z131" s="25">
         <v>0</v>
       </c>
@@ -24529,19 +27349,38 @@
       <c r="B132" s="26">
         <v>1</v>
       </c>
-      <c r="F132">
+      <c r="J132" s="30"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39">
+        <f t="shared" ref="L132:L168" si="9">J132-K132</f>
+        <v>0</v>
+      </c>
+      <c r="M132" s="29"/>
+      <c r="N132" s="30"/>
+      <c r="O132" s="35">
         <v>103</v>
       </c>
-      <c r="H132">
+      <c r="P132" s="35">
+        <v>100</v>
+      </c>
+      <c r="Q132" s="39">
+        <f t="shared" ref="Q132:Q168" si="10">N132+O132-P132</f>
+        <v>3</v>
+      </c>
+      <c r="R132" s="29"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="35">
         <v>20</v>
       </c>
-      <c r="R132">
-        <v>100</v>
-      </c>
-      <c r="U132" s="27">
+      <c r="U132" s="34">
         <v>20</v>
       </c>
-      <c r="X132" s="28"/>
+      <c r="V132" s="39">
+        <f t="shared" ref="V132:V168" si="11">S132+T132-U132</f>
+        <v>0</v>
+      </c>
+      <c r="W132" s="29"/>
+      <c r="X132" s="34"/>
       <c r="Z132" s="25">
         <v>0</v>
       </c>
@@ -24599,16 +27438,37 @@
       <c r="B133" s="26">
         <v>1</v>
       </c>
-      <c r="E133">
+      <c r="G133" s="27">
+        <v>54.695000000000007</v>
+      </c>
+      <c r="J133" s="30"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="29"/>
+      <c r="N133" s="31">
         <v>40</v>
       </c>
-      <c r="L133" s="27">
-        <v>54.695000000000007</v>
-      </c>
-      <c r="R133">
+      <c r="O133" s="39"/>
+      <c r="P133" s="35">
         <v>40</v>
       </c>
-      <c r="X133" s="28"/>
+      <c r="Q133" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R133" s="29"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="39"/>
+      <c r="U133" s="39"/>
+      <c r="V133" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W133" s="29"/>
+      <c r="X133" s="34"/>
       <c r="Z133" s="25">
         <v>0</v>
       </c>
@@ -24672,13 +27532,37 @@
       <c r="B134" s="26">
         <v>1</v>
       </c>
-      <c r="O134">
+      <c r="J134" s="30"/>
+      <c r="K134" s="35">
         <v>8</v>
       </c>
-      <c r="U134">
+      <c r="L134" s="39">
+        <f t="shared" si="9"/>
+        <v>-8</v>
+      </c>
+      <c r="M134" s="29"/>
+      <c r="N134" s="30"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="39"/>
+      <c r="Q134" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="29"/>
+      <c r="S134" s="30"/>
+      <c r="T134" s="39"/>
+      <c r="U134" s="35">
         <v>40</v>
       </c>
-      <c r="X134" s="28"/>
+      <c r="V134" s="40">
+        <f t="shared" si="11"/>
+        <v>-40</v>
+      </c>
+      <c r="W134" s="29">
+        <f>-1*V134*B134</f>
+        <v>40</v>
+      </c>
+      <c r="X134" s="34"/>
       <c r="Z134" s="25">
         <v>0</v>
       </c>
@@ -24742,7 +27626,30 @@
       <c r="B135" s="26">
         <v>0.4</v>
       </c>
-      <c r="X135" s="28"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="29"/>
+      <c r="N135" s="30"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="39"/>
+      <c r="Q135" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R135" s="29"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="39"/>
+      <c r="U135" s="39"/>
+      <c r="V135" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W135" s="29"/>
+      <c r="X135" s="34"/>
       <c r="Z135" s="25">
         <v>0</v>
       </c>
@@ -24832,7 +27739,30 @@
       <c r="B136" s="26">
         <v>0.41</v>
       </c>
-      <c r="X136" s="28"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="29"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="39"/>
+      <c r="Q136" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R136" s="29"/>
+      <c r="S136" s="30"/>
+      <c r="T136" s="39"/>
+      <c r="U136" s="39"/>
+      <c r="V136" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W136" s="29"/>
+      <c r="X136" s="34"/>
       <c r="Z136" s="25">
         <v>0</v>
       </c>
@@ -24969,7 +27899,30 @@
       <c r="B137" s="26">
         <v>0.33</v>
       </c>
-      <c r="X137" s="28"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M137" s="29"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="39"/>
+      <c r="Q137" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R137" s="29"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="39"/>
+      <c r="U137" s="39"/>
+      <c r="V137" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W137" s="29"/>
+      <c r="X137" s="34"/>
       <c r="Z137" s="25">
         <v>0</v>
       </c>
@@ -25144,7 +28097,30 @@
       <c r="B138" s="26">
         <v>0.3</v>
       </c>
-      <c r="X138" s="28"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M138" s="29"/>
+      <c r="N138" s="30"/>
+      <c r="O138" s="39"/>
+      <c r="P138" s="39"/>
+      <c r="Q138" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="29"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="39"/>
+      <c r="U138" s="39"/>
+      <c r="V138" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W138" s="29"/>
+      <c r="X138" s="34"/>
       <c r="Z138" s="25">
         <v>0</v>
       </c>
@@ -25305,7 +28281,30 @@
       <c r="B139" s="26">
         <v>1</v>
       </c>
-      <c r="X139" s="28"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M139" s="29"/>
+      <c r="N139" s="30"/>
+      <c r="O139" s="39"/>
+      <c r="P139" s="39"/>
+      <c r="Q139" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="29"/>
+      <c r="S139" s="30"/>
+      <c r="T139" s="39"/>
+      <c r="U139" s="39"/>
+      <c r="V139" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="29"/>
+      <c r="X139" s="34"/>
       <c r="Z139" s="25">
         <v>0</v>
       </c>
@@ -25462,7 +28461,30 @@
       <c r="B140" s="26">
         <v>1</v>
       </c>
-      <c r="X140" s="28"/>
+      <c r="J140" s="30"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="29"/>
+      <c r="N140" s="30"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
+      <c r="Q140" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="29"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="39"/>
+      <c r="U140" s="39"/>
+      <c r="V140" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W140" s="29"/>
+      <c r="X140" s="34"/>
       <c r="Z140" s="25">
         <v>0</v>
       </c>
@@ -25616,22 +28638,41 @@
       <c r="B141" s="26">
         <v>1</v>
       </c>
-      <c r="D141">
+      <c r="C141">
+        <v>70</v>
+      </c>
+      <c r="J141" s="31">
         <v>102</v>
       </c>
-      <c r="E141">
+      <c r="K141" s="35">
+        <v>97</v>
+      </c>
+      <c r="L141" s="39">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="M141" s="29"/>
+      <c r="N141" s="31">
         <v>12</v>
       </c>
-      <c r="I141">
-        <v>70</v>
-      </c>
-      <c r="O141">
-        <v>97</v>
-      </c>
-      <c r="R141">
+      <c r="O141" s="39"/>
+      <c r="P141" s="35">
         <v>11</v>
       </c>
-      <c r="X141" s="28"/>
+      <c r="Q141" s="39">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="R141" s="29"/>
+      <c r="S141" s="30"/>
+      <c r="T141" s="39"/>
+      <c r="U141" s="39"/>
+      <c r="V141" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W141" s="29"/>
+      <c r="X141" s="34"/>
       <c r="Z141" s="25">
         <v>0</v>
       </c>
@@ -25787,27 +28828,46 @@
         <v>0.41</v>
       </c>
       <c r="C142">
+        <v>117</v>
+      </c>
+      <c r="F142">
         <v>20</v>
       </c>
-      <c r="D142">
+      <c r="G142" s="27">
+        <v>23</v>
+      </c>
+      <c r="J142" s="31">
         <v>100</v>
       </c>
-      <c r="G142">
+      <c r="K142" s="35">
+        <v>100</v>
+      </c>
+      <c r="L142" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="29"/>
+      <c r="N142" s="30"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="39"/>
+      <c r="Q142" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="29"/>
+      <c r="S142" s="31">
         <v>60</v>
       </c>
-      <c r="I142">
-        <v>117</v>
-      </c>
-      <c r="L142" s="27">
-        <v>23</v>
-      </c>
-      <c r="O142">
-        <v>100</v>
-      </c>
-      <c r="U142">
+      <c r="T142" s="39"/>
+      <c r="U142" s="35">
         <v>59</v>
       </c>
-      <c r="X142" s="31">
+      <c r="V142" s="39">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W142" s="29"/>
+      <c r="X142" s="35">
         <v>40</v>
       </c>
       <c r="Y142" s="27">
@@ -25962,19 +29022,38 @@
       <c r="B143" s="26">
         <v>1</v>
       </c>
-      <c r="D143">
+      <c r="J143" s="31">
         <v>157</v>
       </c>
-      <c r="E143">
+      <c r="K143" s="35">
+        <v>150</v>
+      </c>
+      <c r="L143" s="39">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="M143" s="29"/>
+      <c r="N143" s="31">
         <v>12</v>
       </c>
-      <c r="O143">
-        <v>150</v>
-      </c>
-      <c r="R143">
+      <c r="O143" s="39"/>
+      <c r="P143" s="35">
         <v>15</v>
       </c>
-      <c r="X143" s="28"/>
+      <c r="Q143" s="39">
+        <f t="shared" si="10"/>
+        <v>-3</v>
+      </c>
+      <c r="R143" s="29"/>
+      <c r="S143" s="30"/>
+      <c r="T143" s="39"/>
+      <c r="U143" s="39"/>
+      <c r="V143" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W143" s="29"/>
+      <c r="X143" s="34"/>
       <c r="Z143" s="25">
         <v>0</v>
       </c>
@@ -26099,16 +29178,37 @@
       <c r="B144" s="26">
         <v>0.35</v>
       </c>
-      <c r="D144">
+      <c r="C144">
+        <v>35</v>
+      </c>
+      <c r="J144" s="31">
         <v>32</v>
       </c>
-      <c r="I144">
+      <c r="K144" s="35">
         <v>35</v>
       </c>
-      <c r="O144">
-        <v>35</v>
-      </c>
-      <c r="X144" s="28"/>
+      <c r="L144" s="39">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+      <c r="M144" s="29"/>
+      <c r="N144" s="30"/>
+      <c r="O144" s="39"/>
+      <c r="P144" s="39"/>
+      <c r="Q144" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R144" s="29"/>
+      <c r="S144" s="30"/>
+      <c r="T144" s="39"/>
+      <c r="U144" s="39"/>
+      <c r="V144" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W144" s="29"/>
+      <c r="X144" s="34"/>
       <c r="Z144" s="25">
         <v>0</v>
       </c>
@@ -26220,27 +29320,46 @@
         <v>1</v>
       </c>
       <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="F145">
         <v>43</v>
       </c>
-      <c r="D145">
+      <c r="G145" s="27">
+        <v>41.936999999999998</v>
+      </c>
+      <c r="J145" s="31">
         <v>44</v>
       </c>
-      <c r="G145">
+      <c r="K145" s="35">
+        <v>45</v>
+      </c>
+      <c r="L145" s="39">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M145" s="29"/>
+      <c r="N145" s="30"/>
+      <c r="O145" s="39"/>
+      <c r="P145" s="39"/>
+      <c r="Q145" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R145" s="29"/>
+      <c r="S145" s="31">
         <v>13</v>
       </c>
-      <c r="I145">
+      <c r="T145" s="39"/>
+      <c r="U145" s="35">
         <v>11</v>
       </c>
-      <c r="L145" s="27">
-        <v>41.936999999999998</v>
-      </c>
-      <c r="O145">
-        <v>45</v>
-      </c>
-      <c r="U145">
-        <v>11</v>
-      </c>
-      <c r="X145" s="28"/>
+      <c r="V145" s="39">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W145" s="29"/>
+      <c r="X145" s="34"/>
       <c r="Z145" s="25">
         <v>0</v>
       </c>
@@ -26341,27 +29460,46 @@
         <v>0.4</v>
       </c>
       <c r="C146">
+        <v>74</v>
+      </c>
+      <c r="F146">
         <v>90</v>
       </c>
-      <c r="D146">
+      <c r="G146" s="27">
+        <v>95.200000000000017</v>
+      </c>
+      <c r="J146" s="31">
         <v>70</v>
       </c>
-      <c r="G146">
+      <c r="K146" s="35">
+        <v>77</v>
+      </c>
+      <c r="L146" s="39">
+        <f t="shared" si="9"/>
+        <v>-7</v>
+      </c>
+      <c r="M146" s="29"/>
+      <c r="N146" s="30"/>
+      <c r="O146" s="39"/>
+      <c r="P146" s="39"/>
+      <c r="Q146" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="29"/>
+      <c r="S146" s="31">
         <v>50</v>
       </c>
-      <c r="I146">
-        <v>74</v>
-      </c>
-      <c r="L146" s="27">
-        <v>95.200000000000017</v>
-      </c>
-      <c r="O146">
-        <v>77</v>
-      </c>
-      <c r="U146">
+      <c r="T146" s="39"/>
+      <c r="U146" s="35">
         <v>55</v>
       </c>
-      <c r="X146" s="31">
+      <c r="V146" s="39">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="W146" s="29"/>
+      <c r="X146" s="35">
         <v>80</v>
       </c>
       <c r="Y146" s="27">
@@ -26516,28 +29654,45 @@
       <c r="B147" s="26">
         <v>0.41</v>
       </c>
-      <c r="D147">
+      <c r="C147">
+        <v>94</v>
+      </c>
+      <c r="J147" s="31">
         <v>90</v>
       </c>
-      <c r="E147">
+      <c r="K147" s="35">
+        <v>94</v>
+      </c>
+      <c r="L147" s="39">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="M147" s="29"/>
+      <c r="N147" s="31">
         <v>60</v>
       </c>
-      <c r="G147">
+      <c r="O147" s="39"/>
+      <c r="P147" s="35">
+        <v>62</v>
+      </c>
+      <c r="Q147" s="39">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="R147" s="29"/>
+      <c r="S147" s="31">
         <v>30</v>
       </c>
-      <c r="I147">
-        <v>94</v>
-      </c>
-      <c r="O147">
-        <v>94</v>
-      </c>
-      <c r="R147">
-        <v>62</v>
-      </c>
-      <c r="U147">
+      <c r="T147" s="39"/>
+      <c r="U147" s="35">
         <v>34</v>
       </c>
-      <c r="X147" s="31">
+      <c r="V147" s="39">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+      <c r="W147" s="29"/>
+      <c r="X147" s="35">
         <v>40</v>
       </c>
       <c r="Y147" s="27">
@@ -26686,22 +29841,41 @@
       <c r="B148" s="26">
         <v>1</v>
       </c>
-      <c r="D148">
+      <c r="C148">
+        <v>83</v>
+      </c>
+      <c r="J148" s="31">
         <v>118</v>
       </c>
-      <c r="E148">
+      <c r="K148" s="35">
+        <v>116</v>
+      </c>
+      <c r="L148" s="39">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M148" s="29"/>
+      <c r="N148" s="31">
         <v>44</v>
       </c>
-      <c r="I148">
-        <v>83</v>
-      </c>
-      <c r="O148">
-        <v>116</v>
-      </c>
-      <c r="R148">
+      <c r="O148" s="39"/>
+      <c r="P148" s="35">
         <v>45</v>
       </c>
-      <c r="X148" s="28"/>
+      <c r="Q148" s="39">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="R148" s="29"/>
+      <c r="S148" s="30"/>
+      <c r="T148" s="39"/>
+      <c r="U148" s="39"/>
+      <c r="V148" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W148" s="29"/>
+      <c r="X148" s="34"/>
       <c r="Z148" s="25">
         <v>0</v>
       </c>
@@ -26837,19 +30011,38 @@
       <c r="B149" s="26">
         <v>0.35</v>
       </c>
-      <c r="D149">
+      <c r="J149" s="31">
         <v>66</v>
       </c>
-      <c r="G149">
+      <c r="K149" s="35">
+        <v>66</v>
+      </c>
+      <c r="L149" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M149" s="29"/>
+      <c r="N149" s="30"/>
+      <c r="O149" s="39"/>
+      <c r="P149" s="39"/>
+      <c r="Q149" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R149" s="29"/>
+      <c r="S149" s="31">
         <v>30</v>
       </c>
-      <c r="O149">
-        <v>66</v>
-      </c>
-      <c r="U149">
+      <c r="T149" s="39"/>
+      <c r="U149" s="35">
         <v>32</v>
       </c>
-      <c r="X149" s="31">
+      <c r="V149" s="39">
+        <f t="shared" si="11"/>
+        <v>-2</v>
+      </c>
+      <c r="W149" s="29"/>
+      <c r="X149" s="35">
         <v>54</v>
       </c>
       <c r="Y149" s="27">
@@ -26994,33 +30187,50 @@
         <v>0.18</v>
       </c>
       <c r="C150">
+        <v>18</v>
+      </c>
+      <c r="F150">
         <v>10</v>
       </c>
-      <c r="D150">
+      <c r="G150" s="27">
+        <v>14.2</v>
+      </c>
+      <c r="J150" s="31">
         <v>10</v>
       </c>
-      <c r="E150">
+      <c r="K150" s="35">
+        <v>15</v>
+      </c>
+      <c r="L150" s="39">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="M150" s="29"/>
+      <c r="N150" s="31">
         <v>10</v>
       </c>
-      <c r="G150">
+      <c r="O150" s="39"/>
+      <c r="P150" s="35">
+        <v>14</v>
+      </c>
+      <c r="Q150" s="39">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="R150" s="29"/>
+      <c r="S150" s="31">
         <v>10</v>
       </c>
-      <c r="I150">
-        <v>18</v>
-      </c>
-      <c r="L150" s="27">
-        <v>14.2</v>
-      </c>
-      <c r="O150">
-        <v>15</v>
-      </c>
-      <c r="R150">
-        <v>14</v>
-      </c>
-      <c r="U150">
+      <c r="T150" s="39"/>
+      <c r="U150" s="35">
         <v>8</v>
       </c>
-      <c r="X150" s="28"/>
+      <c r="V150" s="39">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W150" s="29"/>
+      <c r="X150" s="34"/>
       <c r="Z150" s="25">
         <v>0</v>
       </c>
@@ -27143,16 +30353,41 @@
       <c r="B151" s="26">
         <v>1</v>
       </c>
-      <c r="C151">
+      <c r="F151">
         <v>41</v>
       </c>
-      <c r="L151" s="27">
+      <c r="G151" s="27">
         <v>39.878</v>
       </c>
-      <c r="O151">
+      <c r="J151" s="30"/>
+      <c r="K151" s="35">
         <v>4</v>
       </c>
-      <c r="X151" s="31">
+      <c r="L151" s="40">
+        <f t="shared" si="9"/>
+        <v>-4</v>
+      </c>
+      <c r="M151" s="29">
+        <f>-1*L151*B151</f>
+        <v>4</v>
+      </c>
+      <c r="N151" s="30"/>
+      <c r="O151" s="39"/>
+      <c r="P151" s="39"/>
+      <c r="Q151" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R151" s="29"/>
+      <c r="S151" s="30"/>
+      <c r="T151" s="39"/>
+      <c r="U151" s="39"/>
+      <c r="V151" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W151" s="29"/>
+      <c r="X151" s="35">
         <v>32</v>
       </c>
       <c r="Y151" s="27">
@@ -27261,19 +30496,38 @@
       <c r="B152" s="26">
         <v>0.4</v>
       </c>
-      <c r="D152">
+      <c r="J152" s="31">
         <v>8</v>
       </c>
-      <c r="G152">
+      <c r="K152" s="35">
         <v>8</v>
       </c>
-      <c r="O152">
+      <c r="L152" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="29"/>
+      <c r="N152" s="30"/>
+      <c r="O152" s="39"/>
+      <c r="P152" s="39"/>
+      <c r="Q152" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R152" s="29"/>
+      <c r="S152" s="31">
         <v>8</v>
       </c>
-      <c r="U152">
+      <c r="T152" s="39"/>
+      <c r="U152" s="35">
         <v>12</v>
       </c>
-      <c r="X152" s="28"/>
+      <c r="V152" s="39">
+        <f t="shared" si="11"/>
+        <v>-4</v>
+      </c>
+      <c r="W152" s="29"/>
+      <c r="X152" s="34"/>
       <c r="Z152" s="25">
         <v>0</v>
       </c>
@@ -27364,7 +30618,30 @@
       <c r="B153" s="26">
         <v>1</v>
       </c>
-      <c r="X153" s="28"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="39"/>
+      <c r="L153" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M153" s="29"/>
+      <c r="N153" s="30"/>
+      <c r="O153" s="39"/>
+      <c r="P153" s="39"/>
+      <c r="Q153" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R153" s="29"/>
+      <c r="S153" s="30"/>
+      <c r="T153" s="39"/>
+      <c r="U153" s="39"/>
+      <c r="V153" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W153" s="29"/>
+      <c r="X153" s="34"/>
       <c r="Z153" s="25">
         <v>0</v>
       </c>
@@ -27450,7 +30727,30 @@
       <c r="B154" s="26">
         <v>0.84</v>
       </c>
-      <c r="X154" s="28"/>
+      <c r="J154" s="30"/>
+      <c r="K154" s="39"/>
+      <c r="L154" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M154" s="29"/>
+      <c r="N154" s="30"/>
+      <c r="O154" s="39"/>
+      <c r="P154" s="39"/>
+      <c r="Q154" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R154" s="29"/>
+      <c r="S154" s="30"/>
+      <c r="T154" s="39"/>
+      <c r="U154" s="39"/>
+      <c r="V154" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W154" s="29"/>
+      <c r="X154" s="34"/>
       <c r="Z154" s="25">
         <v>0</v>
       </c>
@@ -27535,7 +30835,30 @@
       <c r="B155" s="26">
         <v>0.84</v>
       </c>
-      <c r="X155" s="28"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="39"/>
+      <c r="L155" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M155" s="29"/>
+      <c r="N155" s="30"/>
+      <c r="O155" s="39"/>
+      <c r="P155" s="39"/>
+      <c r="Q155" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R155" s="29"/>
+      <c r="S155" s="30"/>
+      <c r="T155" s="39"/>
+      <c r="U155" s="39"/>
+      <c r="V155" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W155" s="29"/>
+      <c r="X155" s="34"/>
       <c r="Z155" s="25">
         <v>0</v>
       </c>
@@ -27616,33 +30939,50 @@
         <v>0.35</v>
       </c>
       <c r="C156">
+        <v>47</v>
+      </c>
+      <c r="F156">
         <v>64</v>
       </c>
-      <c r="D156">
+      <c r="G156" s="27">
+        <v>62.599999999999987</v>
+      </c>
+      <c r="J156" s="31">
         <v>40</v>
       </c>
-      <c r="E156">
+      <c r="K156" s="35">
+        <v>45</v>
+      </c>
+      <c r="L156" s="39">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="M156" s="29"/>
+      <c r="N156" s="31">
         <v>16</v>
       </c>
-      <c r="G156">
+      <c r="O156" s="39"/>
+      <c r="P156" s="35">
+        <v>20</v>
+      </c>
+      <c r="Q156" s="39">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="R156" s="29"/>
+      <c r="S156" s="31">
         <v>160</v>
       </c>
-      <c r="I156">
-        <v>47</v>
-      </c>
-      <c r="L156" s="27">
-        <v>62.599999999999987</v>
-      </c>
-      <c r="O156">
-        <v>45</v>
-      </c>
-      <c r="R156">
-        <v>20</v>
-      </c>
-      <c r="U156">
+      <c r="T156" s="39"/>
+      <c r="U156" s="35">
         <v>163</v>
       </c>
-      <c r="X156" s="31">
+      <c r="V156" s="39">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="W156" s="29"/>
+      <c r="X156" s="35">
         <v>16</v>
       </c>
       <c r="Y156" s="27">
@@ -27752,33 +31092,50 @@
         <v>1</v>
       </c>
       <c r="C157">
+        <v>60</v>
+      </c>
+      <c r="F157">
         <v>107</v>
       </c>
-      <c r="D157">
+      <c r="G157" s="27">
+        <v>104.83880000000001</v>
+      </c>
+      <c r="J157" s="31">
         <v>73</v>
       </c>
-      <c r="E157">
+      <c r="K157" s="35">
+        <v>73</v>
+      </c>
+      <c r="L157" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="29"/>
+      <c r="N157" s="31">
         <v>68</v>
       </c>
-      <c r="G157">
+      <c r="O157" s="39"/>
+      <c r="P157" s="35">
+        <v>65</v>
+      </c>
+      <c r="Q157" s="39">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R157" s="29"/>
+      <c r="S157" s="31">
         <v>84</v>
       </c>
-      <c r="I157">
-        <v>60</v>
-      </c>
-      <c r="L157" s="27">
-        <v>104.83880000000001</v>
-      </c>
-      <c r="O157">
-        <v>73</v>
-      </c>
-      <c r="R157">
-        <v>65</v>
-      </c>
-      <c r="U157">
+      <c r="T157" s="39"/>
+      <c r="U157" s="35">
         <v>83</v>
       </c>
-      <c r="X157" s="28"/>
+      <c r="V157" s="39">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W157" s="29"/>
+      <c r="X157" s="34"/>
       <c r="Z157" s="25">
         <v>0</v>
       </c>
@@ -27905,33 +31262,50 @@
         <v>0.35</v>
       </c>
       <c r="C158">
+        <v>17</v>
+      </c>
+      <c r="F158">
         <v>136</v>
       </c>
-      <c r="D158">
+      <c r="G158" s="27">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="J158" s="31">
         <v>72</v>
       </c>
-      <c r="E158">
+      <c r="K158" s="35">
+        <v>75</v>
+      </c>
+      <c r="L158" s="39">
+        <f t="shared" si="9"/>
+        <v>-3</v>
+      </c>
+      <c r="M158" s="29"/>
+      <c r="N158" s="31">
         <v>32</v>
       </c>
-      <c r="G158">
+      <c r="O158" s="39"/>
+      <c r="P158" s="35">
+        <v>30</v>
+      </c>
+      <c r="Q158" s="39">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="R158" s="29"/>
+      <c r="S158" s="31">
         <v>48</v>
       </c>
-      <c r="I158">
-        <v>17</v>
-      </c>
-      <c r="L158" s="27">
-        <v>140.80000000000001</v>
-      </c>
-      <c r="O158">
-        <v>75</v>
-      </c>
-      <c r="R158">
-        <v>30</v>
-      </c>
-      <c r="U158">
+      <c r="T158" s="39"/>
+      <c r="U158" s="35">
         <v>51</v>
       </c>
-      <c r="X158" s="31">
+      <c r="V158" s="39">
+        <f t="shared" si="11"/>
+        <v>-3</v>
+      </c>
+      <c r="W158" s="29"/>
+      <c r="X158" s="35">
         <v>152</v>
       </c>
       <c r="Y158" s="27">
@@ -28046,7 +31420,30 @@
       <c r="B159" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X159" s="28"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="39"/>
+      <c r="L159" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M159" s="29"/>
+      <c r="N159" s="30"/>
+      <c r="O159" s="39"/>
+      <c r="P159" s="39"/>
+      <c r="Q159" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R159" s="29"/>
+      <c r="S159" s="30"/>
+      <c r="T159" s="39"/>
+      <c r="U159" s="39"/>
+      <c r="V159" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W159" s="29"/>
+      <c r="X159" s="34"/>
       <c r="Z159" s="25">
         <v>0</v>
       </c>
@@ -28148,21 +31545,42 @@
         <v>0.3</v>
       </c>
       <c r="C160">
+        <v>41</v>
+      </c>
+      <c r="F160">
         <v>18</v>
       </c>
-      <c r="E160">
+      <c r="G160" s="27">
+        <v>19.2</v>
+      </c>
+      <c r="J160" s="30"/>
+      <c r="K160" s="39"/>
+      <c r="L160" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="29"/>
+      <c r="N160" s="31">
         <v>72</v>
       </c>
-      <c r="I160">
-        <v>41</v>
-      </c>
-      <c r="L160" s="27">
-        <v>19.2</v>
-      </c>
-      <c r="R160">
+      <c r="O160" s="39"/>
+      <c r="P160" s="35">
         <v>72</v>
       </c>
-      <c r="X160" s="28"/>
+      <c r="Q160" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R160" s="29"/>
+      <c r="S160" s="30"/>
+      <c r="T160" s="39"/>
+      <c r="U160" s="39"/>
+      <c r="V160" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W160" s="29"/>
+      <c r="X160" s="34"/>
       <c r="Z160" s="25">
         <v>0</v>
       </c>
@@ -28224,15 +31642,35 @@
       <c r="B161" s="26">
         <v>0.18</v>
       </c>
-      <c r="C161" s="25"/>
-      <c r="I161">
+      <c r="C161">
         <v>50</v>
       </c>
-      <c r="L161" s="27"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="25"/>
-      <c r="T161" s="27"/>
-      <c r="X161" s="28"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="27"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="39"/>
+      <c r="L161" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M161" s="29"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="39"/>
+      <c r="P161" s="39"/>
+      <c r="Q161" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R161" s="29"/>
+      <c r="S161" s="30"/>
+      <c r="T161" s="39"/>
+      <c r="U161" s="39"/>
+      <c r="V161" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W161" s="29"/>
+      <c r="X161" s="34"/>
       <c r="Y161" s="27"/>
       <c r="AA161" s="29"/>
       <c r="AB161" s="30"/>
@@ -28298,33 +31736,50 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C162">
+        <v>18</v>
+      </c>
+      <c r="F162">
         <v>8</v>
       </c>
-      <c r="D162">
+      <c r="G162" s="27">
+        <v>11.4</v>
+      </c>
+      <c r="J162" s="31">
         <v>16</v>
       </c>
-      <c r="E162">
+      <c r="K162" s="35">
+        <v>21</v>
+      </c>
+      <c r="L162" s="39">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="M162" s="29"/>
+      <c r="N162" s="31">
         <v>16</v>
       </c>
-      <c r="G162">
+      <c r="O162" s="39"/>
+      <c r="P162" s="35">
+        <v>18</v>
+      </c>
+      <c r="Q162" s="39">
+        <f t="shared" si="10"/>
+        <v>-2</v>
+      </c>
+      <c r="R162" s="29"/>
+      <c r="S162" s="31">
         <v>24</v>
       </c>
-      <c r="I162">
-        <v>18</v>
-      </c>
-      <c r="L162" s="27">
-        <v>11.4</v>
-      </c>
-      <c r="O162">
-        <v>21</v>
-      </c>
-      <c r="R162">
-        <v>18</v>
-      </c>
-      <c r="U162">
+      <c r="T162" s="39"/>
+      <c r="U162" s="35">
         <v>24</v>
       </c>
-      <c r="X162" s="28"/>
+      <c r="V162" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W162" s="29"/>
+      <c r="X162" s="34"/>
       <c r="Z162" s="25">
         <v>0</v>
       </c>
@@ -28385,24 +31840,46 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C163">
+        <v>16</v>
+      </c>
+      <c r="F163">
         <v>120</v>
       </c>
-      <c r="D163">
+      <c r="G163" s="27">
+        <v>124.8</v>
+      </c>
+      <c r="J163" s="31">
         <v>88</v>
       </c>
-      <c r="G163">
+      <c r="K163" s="35">
+        <v>101</v>
+      </c>
+      <c r="L163" s="40">
+        <f t="shared" si="9"/>
+        <v>-13</v>
+      </c>
+      <c r="M163" s="29">
+        <f>-1*L163*B163</f>
+        <v>3.6400000000000006</v>
+      </c>
+      <c r="N163" s="30"/>
+      <c r="O163" s="39"/>
+      <c r="P163" s="39"/>
+      <c r="Q163" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R163" s="29"/>
+      <c r="S163" s="31">
         <v>64</v>
       </c>
-      <c r="I163">
-        <v>16</v>
-      </c>
-      <c r="L163" s="27">
-        <v>124.8</v>
-      </c>
-      <c r="O163">
-        <v>101</v>
-      </c>
-      <c r="X163" s="28">
+      <c r="T163" s="39"/>
+      <c r="U163" s="39"/>
+      <c r="V163" s="39">
+        <v>0</v>
+      </c>
+      <c r="W163" s="29"/>
+      <c r="X163" s="34">
         <v>192</v>
       </c>
       <c r="Z163" s="25">
@@ -28461,31 +31938,48 @@
       <c r="B164" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C164">
+      <c r="F164">
         <v>24</v>
       </c>
-      <c r="D164">
+      <c r="G164" s="27">
+        <v>23.399999999999991</v>
+      </c>
+      <c r="J164" s="31">
         <v>72</v>
       </c>
-      <c r="E164">
+      <c r="K164" s="35">
+        <v>73</v>
+      </c>
+      <c r="L164" s="39">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M164" s="29"/>
+      <c r="N164" s="31">
         <v>40</v>
       </c>
-      <c r="G164">
+      <c r="O164" s="39"/>
+      <c r="P164" s="35">
+        <v>40</v>
+      </c>
+      <c r="Q164" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R164" s="29"/>
+      <c r="S164" s="31">
         <v>80</v>
       </c>
-      <c r="L164" s="27">
-        <v>23.399999999999991</v>
-      </c>
-      <c r="O164">
-        <v>73</v>
-      </c>
-      <c r="R164">
-        <v>40</v>
-      </c>
-      <c r="U164">
+      <c r="T164" s="39"/>
+      <c r="U164" s="35">
         <v>78</v>
       </c>
-      <c r="X164" s="28"/>
+      <c r="V164" s="39">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="W164" s="29"/>
+      <c r="X164" s="34"/>
       <c r="Z164" s="25">
         <v>0</v>
       </c>
@@ -28545,22 +32039,41 @@
       <c r="B165" s="26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E165">
+      <c r="C165">
+        <v>26</v>
+      </c>
+      <c r="J165" s="30"/>
+      <c r="K165" s="39"/>
+      <c r="L165" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M165" s="29"/>
+      <c r="N165" s="31">
         <v>48</v>
       </c>
-      <c r="G165">
+      <c r="O165" s="39"/>
+      <c r="P165" s="35">
+        <v>49</v>
+      </c>
+      <c r="Q165" s="39">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="R165" s="29"/>
+      <c r="S165" s="31">
         <v>48</v>
       </c>
-      <c r="I165">
-        <v>26</v>
-      </c>
-      <c r="R165">
-        <v>49</v>
-      </c>
-      <c r="U165">
+      <c r="T165" s="39"/>
+      <c r="U165" s="35">
         <v>48</v>
       </c>
-      <c r="X165" s="28"/>
+      <c r="V165" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W165" s="29"/>
+      <c r="X165" s="34"/>
       <c r="Z165" s="25">
         <v>0</v>
       </c>
@@ -28624,22 +32137,42 @@
         <v>0.33</v>
       </c>
       <c r="C166">
+        <v>16</v>
+      </c>
+      <c r="F166">
         <v>8</v>
       </c>
-      <c r="E166">
+      <c r="G166" s="27">
+        <v>13</v>
+      </c>
+      <c r="J166" s="30"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M166" s="29"/>
+      <c r="N166" s="31">
         <v>16</v>
       </c>
-      <c r="I166">
-        <v>16</v>
-      </c>
-      <c r="L166" s="27">
-        <v>13</v>
-      </c>
-      <c r="R166">
+      <c r="O166" s="39"/>
+      <c r="P166" s="35">
         <v>17</v>
       </c>
-      <c r="W166" s="27"/>
-      <c r="X166" s="28"/>
+      <c r="Q166" s="39">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="R166" s="29"/>
+      <c r="S166" s="30"/>
+      <c r="T166" s="39"/>
+      <c r="U166" s="39"/>
+      <c r="V166" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W166" s="32"/>
+      <c r="X166" s="34"/>
       <c r="AA166" s="29"/>
       <c r="AB166" s="30"/>
       <c r="AC166" s="27"/>
@@ -28692,12 +32225,34 @@
       <c r="B167" s="26">
         <v>0.3</v>
       </c>
-      <c r="I167">
+      <c r="C167">
         <v>100</v>
       </c>
-      <c r="L167" s="27"/>
-      <c r="W167" s="27"/>
-      <c r="X167" s="28"/>
+      <c r="G167" s="27"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="39"/>
+      <c r="L167" s="39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M167" s="29"/>
+      <c r="N167" s="30"/>
+      <c r="O167" s="39"/>
+      <c r="P167" s="39"/>
+      <c r="Q167" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R167" s="29"/>
+      <c r="S167" s="30"/>
+      <c r="T167" s="39"/>
+      <c r="U167" s="39"/>
+      <c r="V167" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W167" s="32"/>
+      <c r="X167" s="34"/>
       <c r="AA167" s="29"/>
       <c r="AB167" s="30"/>
       <c r="AC167" s="27"/>
@@ -28750,7 +32305,30 @@
       <c r="B168" s="26">
         <v>0.18</v>
       </c>
-      <c r="X168" s="7"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="9"/>
+      <c r="L168" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M168" s="14"/>
+      <c r="N168" s="18"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="14"/>
+      <c r="S168" s="18"/>
+      <c r="T168" s="9"/>
+      <c r="U168" s="9"/>
+      <c r="V168" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W168" s="14"/>
+      <c r="X168" s="8"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9">
         <v>0</v>
@@ -28933,6 +32511,6 @@
   </sheetData>
   <autoFilter ref="A1:BP168" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D694E-210A-4D33-828C-A9D30AE80923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E57882-1BC2-42A6-959F-FA5CA09FFCA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1391,7 +1391,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
+++ b/отчеты Останкино (поставки)/Останкино_недогрузы/Луганск.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Ost_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\отчеты Останкино (поставки)\Останкино_недогрузы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230E7918-B011-4FDF-AA37-DC214ACABB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B591AD7B-74EE-45D6-A483-20AA6849021A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,15 +1487,16 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="28" customWidth="1"/>
-    <col min="4" max="14" width="10.7109375" style="26" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="28" customWidth="1"/>
+    <col min="6" max="14" width="10.7109375" style="26" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" style="28" customWidth="1"/>
     <col min="16" max="93" width="10.7109375" style="26" customWidth="1"/>
     <col min="94" max="94" width="10.7109375" style="28" customWidth="1"/>
@@ -1532,20 +1533,20 @@
       <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>7</v>
@@ -2297,24 +2298,24 @@
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="C2" s="24">
-        <f>SUM(C3:C184)</f>
+        <f t="shared" ref="C2:BO2" si="0">SUM(C3:C184)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
+        <f>SUM(E3:E184)</f>
         <v>3423</v>
-      </c>
-      <c r="D2" s="24">
-        <f t="shared" ref="D2:BO2" si="0">SUM(D3:D184)</f>
-        <v>4534</v>
-      </c>
-      <c r="E2" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="F2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3463.5294117647063</v>
       </c>
       <c r="G2" s="24">
-        <f t="shared" si="0"/>
-        <v>3463.5294117647063</v>
+        <f>SUM(G3:G184)</f>
+        <v>4534</v>
       </c>
       <c r="H2" s="24">
         <f t="shared" si="0"/>
@@ -2322,11 +2323,11 @@
       </c>
       <c r="I2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-355</v>
       </c>
       <c r="J2" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>142.16999999999999</v>
       </c>
       <c r="K2" s="24">
         <f t="shared" si="0"/>
@@ -3319,6 +3320,10 @@
       </c>
       <c r="B3" s="27">
         <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <f>E3+G3-F3-H3</f>
+        <v>0</v>
       </c>
       <c r="K3" s="29"/>
       <c r="O3" s="26">
@@ -3557,11 +3562,15 @@
       <c r="B4" s="27">
         <v>0.4</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>48</v>
       </c>
       <c r="H4" s="28">
         <v>51</v>
+      </c>
+      <c r="I4" s="26">
+        <f t="shared" ref="I4:I67" si="4">E4+G4-F4-H4</f>
+        <v>-3</v>
       </c>
       <c r="K4" s="29"/>
       <c r="O4" s="26">
@@ -4000,11 +4009,15 @@
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>16</v>
       </c>
       <c r="H5" s="28">
         <v>17</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="K5" s="29"/>
       <c r="O5" s="26">
@@ -4406,6 +4419,10 @@
       <c r="B6" s="27">
         <v>1</v>
       </c>
+      <c r="I6" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K6" s="29"/>
       <c r="O6" s="26">
         <v>0</v>
@@ -4680,6 +4697,10 @@
       <c r="B7" s="27">
         <v>1</v>
       </c>
+      <c r="I7" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K7" s="29"/>
       <c r="O7" s="26">
         <v>0</v>
@@ -4954,11 +4975,15 @@
       <c r="B8" s="27">
         <v>0.25</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>8</v>
       </c>
       <c r="H8" s="28">
         <v>15</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="4"/>
+        <v>-7</v>
       </c>
       <c r="K8" s="29"/>
       <c r="M8">
@@ -5082,17 +5107,21 @@
       <c r="B9" s="27">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>322</v>
       </c>
-      <c r="D9">
+      <c r="F9" s="28">
+        <v>322.94117647058818</v>
+      </c>
+      <c r="G9">
         <v>223</v>
-      </c>
-      <c r="G9" s="28">
-        <v>322.94117647058818</v>
       </c>
       <c r="H9" s="28">
         <v>226.0588235294118</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="4"/>
+        <v>-3.9999999999999716</v>
       </c>
       <c r="K9" s="32">
         <v>170</v>
@@ -5640,6 +5669,10 @@
       <c r="B10" s="27">
         <v>1</v>
       </c>
+      <c r="I10" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="29"/>
       <c r="O10" s="26">
         <v>0</v>
@@ -5939,6 +5972,10 @@
       </c>
       <c r="B11" s="27">
         <v>1</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K11" s="29"/>
       <c r="O11" s="26">
@@ -6284,14 +6321,22 @@
       <c r="B12" s="27">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>113</v>
       </c>
-      <c r="G12" s="28">
+      <c r="F12" s="28">
         <v>116.4705882352941</v>
       </c>
       <c r="H12" s="28">
         <v>81.529411764705884</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="4"/>
+        <v>-84.999999999999986</v>
+      </c>
+      <c r="J12" s="26">
+        <f>-1*I12*B12</f>
+        <v>84.999999999999986</v>
       </c>
       <c r="K12" s="32">
         <v>102</v>
@@ -6817,17 +6862,21 @@
       <c r="B13" s="27">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>290</v>
       </c>
-      <c r="D13">
+      <c r="F13" s="28">
+        <v>287.05882352941182</v>
+      </c>
+      <c r="G13">
         <v>195</v>
-      </c>
-      <c r="G13" s="28">
-        <v>287.05882352941182</v>
       </c>
       <c r="H13" s="28">
         <v>200.9411764705882</v>
+      </c>
+      <c r="I13" s="26">
+        <f t="shared" si="4"/>
+        <v>-3.0000000000000284</v>
       </c>
       <c r="K13" s="32">
         <v>168</v>
@@ -7387,11 +7436,15 @@
       <c r="B14" s="27">
         <v>0.25</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>24</v>
       </c>
       <c r="H14" s="28">
         <v>30</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" si="4"/>
+        <v>-6</v>
       </c>
       <c r="K14" s="32">
         <v>32</v>
@@ -7813,6 +7866,10 @@
       <c r="B15" s="27">
         <v>0.15</v>
       </c>
+      <c r="I15" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K15" s="29"/>
       <c r="O15" s="26">
         <v>0</v>
@@ -8087,6 +8144,10 @@
       <c r="B16" s="27">
         <v>0.15</v>
       </c>
+      <c r="I16" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K16" s="29"/>
       <c r="O16" s="26">
         <v>0</v>
@@ -8361,6 +8422,10 @@
       <c r="B17" s="27">
         <v>0.15</v>
       </c>
+      <c r="I17" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K17" s="29"/>
       <c r="O17" s="26">
         <v>0</v>
@@ -8635,6 +8700,10 @@
       <c r="B18" s="27">
         <v>1</v>
       </c>
+      <c r="I18" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K18" s="29"/>
       <c r="O18" s="26">
         <v>0</v>
@@ -8909,6 +8978,10 @@
       <c r="B19" s="27">
         <v>1</v>
       </c>
+      <c r="I19" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K19" s="29"/>
       <c r="O19" s="26">
         <v>0</v>
@@ -9183,6 +9256,10 @@
       <c r="B20" s="27">
         <v>1</v>
       </c>
+      <c r="I20" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K20" s="29"/>
       <c r="O20" s="26">
         <v>0</v>
@@ -9457,6 +9534,10 @@
       <c r="B21" s="27">
         <v>1</v>
       </c>
+      <c r="I21" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K21" s="29"/>
       <c r="O21" s="26">
         <v>0</v>
@@ -9731,6 +9812,10 @@
       <c r="B22" s="27">
         <v>1</v>
       </c>
+      <c r="I22" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K22" s="29"/>
       <c r="O22" s="26">
         <v>0</v>
@@ -10054,11 +10139,15 @@
       <c r="B23" s="27">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>235</v>
       </c>
       <c r="H23" s="28">
         <v>237</v>
+      </c>
+      <c r="I23" s="26">
+        <f t="shared" si="4"/>
+        <v>-2</v>
       </c>
       <c r="K23" s="29"/>
       <c r="O23" s="26">
@@ -10541,6 +10630,10 @@
       <c r="B24" s="27">
         <v>0.25</v>
       </c>
+      <c r="I24" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="32">
         <v>64</v>
       </c>
@@ -11003,6 +11096,10 @@
       <c r="B25" s="27">
         <v>0.4</v>
       </c>
+      <c r="I25" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="32">
         <v>54</v>
       </c>
@@ -11471,17 +11568,21 @@
       <c r="B26" s="27">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>238</v>
       </c>
-      <c r="D26">
+      <c r="F26" s="28">
+        <v>231.1764705882353</v>
+      </c>
+      <c r="G26">
         <v>168</v>
-      </c>
-      <c r="G26" s="28">
-        <v>231.1764705882353</v>
       </c>
       <c r="H26" s="28">
         <v>161.8235294117647</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="4"/>
+        <v>13</v>
       </c>
       <c r="K26" s="32">
         <v>126</v>
@@ -12027,6 +12128,10 @@
       <c r="H27" s="28">
         <v>66</v>
       </c>
+      <c r="I27" s="26">
+        <f>G183-F27-H27</f>
+        <v>-2</v>
+      </c>
       <c r="K27" s="29"/>
       <c r="L27">
         <v>87</v>
@@ -12475,6 +12580,10 @@
       <c r="B28" s="27">
         <v>1</v>
       </c>
+      <c r="I28" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="29"/>
       <c r="O28" s="26">
         <v>0</v>
@@ -12781,6 +12890,10 @@
       <c r="B29" s="27">
         <v>0.25</v>
       </c>
+      <c r="I29" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="29"/>
       <c r="O29" s="26">
         <v>0</v>
@@ -13182,6 +13295,10 @@
       </c>
       <c r="B30" s="27">
         <v>0.25</v>
+      </c>
+      <c r="I30" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K30" s="29"/>
       <c r="O30" s="26">
@@ -13394,6 +13511,10 @@
       <c r="B31" s="27">
         <v>1</v>
       </c>
+      <c r="I31" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K31" s="29"/>
       <c r="O31" s="26">
         <v>0</v>
@@ -13708,11 +13829,15 @@
       <c r="B32" s="27">
         <v>0.4</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>16</v>
       </c>
       <c r="H32" s="28">
         <v>16</v>
+      </c>
+      <c r="I32" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K32" s="29"/>
       <c r="M32">
@@ -14161,6 +14286,10 @@
       <c r="B33" s="27">
         <v>1</v>
       </c>
+      <c r="I33" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K33" s="29"/>
       <c r="O33" s="26">
         <v>0</v>
@@ -14435,17 +14564,21 @@
       <c r="B34" s="27">
         <v>1</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>243</v>
       </c>
-      <c r="D34">
+      <c r="F34" s="28">
+        <v>245.29411764705881</v>
+      </c>
+      <c r="G34">
         <v>170</v>
-      </c>
-      <c r="G34" s="28">
-        <v>245.29411764705881</v>
       </c>
       <c r="H34" s="28">
         <v>171.70588235294119</v>
+      </c>
+      <c r="I34" s="26">
+        <f t="shared" si="4"/>
+        <v>-4</v>
       </c>
       <c r="K34" s="32">
         <v>81</v>
@@ -15006,11 +15139,15 @@
       <c r="B35" s="27">
         <v>0.22</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>128</v>
       </c>
       <c r="H35" s="28">
         <v>128</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K35" s="32">
         <v>16</v>
@@ -15434,6 +15571,10 @@
       <c r="B36" s="27">
         <v>1</v>
       </c>
+      <c r="I36" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K36" s="29"/>
       <c r="O36" s="26">
         <v>0</v>
@@ -15708,6 +15849,10 @@
       <c r="B37" s="27">
         <v>0.4</v>
       </c>
+      <c r="I37" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K37" s="29"/>
       <c r="O37" s="26">
         <v>0</v>
@@ -16036,6 +16181,10 @@
       <c r="B38" s="27">
         <v>1</v>
       </c>
+      <c r="I38" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K38" s="29"/>
       <c r="O38" s="26">
         <v>0</v>
@@ -16310,6 +16459,10 @@
       <c r="B39" s="27">
         <v>1</v>
       </c>
+      <c r="I39" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K39" s="29"/>
       <c r="O39" s="26">
         <v>0</v>
@@ -16584,6 +16737,10 @@
       <c r="B40" s="27">
         <v>0.4</v>
       </c>
+      <c r="I40" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K40" s="29"/>
       <c r="O40" s="26">
         <v>0</v>
@@ -16857,6 +17014,10 @@
       </c>
       <c r="B41" s="27">
         <v>0.33</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K41" s="29"/>
       <c r="O41" s="26">
@@ -17161,6 +17322,10 @@
       <c r="B42" s="27">
         <v>1</v>
       </c>
+      <c r="I42" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K42" s="29"/>
       <c r="O42" s="26">
         <v>0</v>
@@ -17443,6 +17608,10 @@
       <c r="B43" s="27">
         <v>1</v>
       </c>
+      <c r="I43" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K43" s="29"/>
       <c r="O43" s="26">
         <v>0</v>
@@ -17717,6 +17886,10 @@
       <c r="B44" s="27">
         <v>0.36</v>
       </c>
+      <c r="I44" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K44" s="29"/>
       <c r="O44" s="26">
         <v>0</v>
@@ -17991,6 +18164,10 @@
       <c r="B45" s="27">
         <v>0.3</v>
       </c>
+      <c r="I45" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K45" s="29"/>
       <c r="O45" s="26">
         <v>0</v>
@@ -18294,6 +18471,10 @@
       <c r="B46" s="27">
         <v>0.35</v>
       </c>
+      <c r="I46" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K46" s="29"/>
       <c r="O46" s="26">
         <v>0</v>
@@ -18568,6 +18749,10 @@
       <c r="B47" s="27">
         <v>1</v>
       </c>
+      <c r="I47" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K47" s="29"/>
       <c r="O47" s="26">
         <v>0</v>
@@ -18842,11 +19027,15 @@
       <c r="B48" s="27">
         <v>0.09</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>190</v>
       </c>
       <c r="H48" s="28">
         <v>199</v>
+      </c>
+      <c r="I48" s="26">
+        <f t="shared" si="4"/>
+        <v>-9</v>
       </c>
       <c r="K48" s="32">
         <v>50</v>
@@ -19091,6 +19280,10 @@
       </c>
       <c r="B49" s="27">
         <v>0.15</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K49" s="32">
         <v>96</v>
@@ -19325,6 +19518,10 @@
       <c r="B50" s="27">
         <v>0.09</v>
       </c>
+      <c r="I50" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K50" s="32">
         <v>110</v>
       </c>
@@ -19809,6 +20006,10 @@
       <c r="B51" s="27">
         <v>0.3</v>
       </c>
+      <c r="I51" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K51" s="29"/>
       <c r="O51" s="26">
         <v>0</v>
@@ -20083,6 +20284,10 @@
       <c r="B52" s="27">
         <v>0.27</v>
       </c>
+      <c r="I52" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K52" s="29"/>
       <c r="O52" s="26">
         <v>0</v>
@@ -20357,17 +20562,21 @@
       <c r="B53" s="27">
         <v>1</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>199</v>
       </c>
-      <c r="D53">
+      <c r="F53" s="28">
+        <v>190.58823529411771</v>
+      </c>
+      <c r="G53">
         <v>141</v>
-      </c>
-      <c r="G53" s="28">
-        <v>190.58823529411771</v>
       </c>
       <c r="H53" s="28">
         <v>133.41176470588229</v>
+      </c>
+      <c r="I53" s="26">
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="K53" s="32">
         <v>69</v>
@@ -20881,6 +21090,10 @@
       <c r="B54" s="27">
         <v>1</v>
       </c>
+      <c r="I54" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K54" s="29"/>
       <c r="O54" s="26">
         <v>0</v>
@@ -21155,11 +21368,15 @@
       <c r="B55" s="27">
         <v>0.4</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>40</v>
       </c>
       <c r="H55" s="28">
         <v>41</v>
+      </c>
+      <c r="I55" s="26">
+        <f t="shared" si="4"/>
+        <v>-1</v>
       </c>
       <c r="K55" s="32">
         <v>8</v>
@@ -21503,11 +21720,15 @@
       <c r="B56" s="27">
         <v>0.4</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>8</v>
       </c>
       <c r="H56" s="28">
         <v>12</v>
+      </c>
+      <c r="I56" s="26">
+        <f t="shared" si="4"/>
+        <v>-4</v>
       </c>
       <c r="K56" s="29"/>
       <c r="M56">
@@ -21746,6 +21967,10 @@
       <c r="B57" s="27">
         <v>0.5</v>
       </c>
+      <c r="I57" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K57" s="29"/>
       <c r="O57" s="26">
         <v>0</v>
@@ -22020,11 +22245,19 @@
       <c r="B58" s="27">
         <v>0.4</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>96</v>
       </c>
-      <c r="G58" s="28">
+      <c r="F58" s="28">
         <v>108</v>
+      </c>
+      <c r="I58" s="25">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="J58" s="26">
+        <f>-1*I58*B58</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="K58" s="32">
         <v>152</v>
@@ -22517,6 +22750,10 @@
       </c>
       <c r="B59" s="27">
         <v>0.5</v>
+      </c>
+      <c r="I59" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K59" s="29"/>
       <c r="O59" s="26">
@@ -22800,6 +23037,10 @@
       <c r="B60" s="27">
         <v>0.5</v>
       </c>
+      <c r="I60" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="29"/>
       <c r="O60" s="26">
         <v>0</v>
@@ -23077,6 +23318,14 @@
       <c r="H61" s="28">
         <v>101</v>
       </c>
+      <c r="I61" s="25">
+        <f t="shared" si="4"/>
+        <v>-101</v>
+      </c>
+      <c r="J61" s="26">
+        <f>-1*I61*B61</f>
+        <v>40.400000000000006</v>
+      </c>
       <c r="K61" s="29"/>
       <c r="M61">
         <v>88</v>
@@ -23567,11 +23816,15 @@
       <c r="B62" s="27">
         <v>0.4</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>64</v>
       </c>
       <c r="H62" s="28">
         <v>70</v>
+      </c>
+      <c r="I62" s="26">
+        <f t="shared" si="4"/>
+        <v>-6</v>
       </c>
       <c r="K62" s="32">
         <v>88</v>
@@ -24076,6 +24329,10 @@
       </c>
       <c r="B63" s="16">
         <v>0.84</v>
+      </c>
+      <c r="I63" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="K63" s="29"/>
       <c r="O63" s="26">
@@ -24315,6 +24572,10 @@
       <c r="B64" s="27">
         <v>0.1</v>
       </c>
+      <c r="I64" s="26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K64" s="29"/>
       <c r="O64" s="26">
         <v>0</v>
@@ -24799,11 +25060,15 @@
       <c r="B65" s="27">
         <v>0.1</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>14</v>
       </c>
       <c r="H65" s="28">
         <v>27</v>
+      </c>
+      <c r="I65" s="26">
+        <f t="shared" si="4"/>
+        <v>-13</v>
       </c>
       <c r="K65" s="32">
         <v>84</v>
@@ -25267,17 +25532,21 @@
       <c r="B66" s="27">
         <v>0.1</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>160</v>
       </c>
-      <c r="D66">
+      <c r="F66" s="28">
+        <v>167.0588235294118</v>
+      </c>
+      <c r="G66">
         <v>110</v>
-      </c>
-      <c r="G66" s="28">
-        <v>167.0588235294118</v>
       </c>
       <c r="H66" s="28">
         <v>116.9411764705882</v>
+      </c>
+      <c r="I66" s="26">
+        <f t="shared" si="4"/>
+        <v>-14</v>
       </c>
       <c r="K66" s="32">
         <v>210</v>
@@ -25766,11 +26035,15 @@
       <c r="B67" s="27">
         <v>0.1</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>10</v>
       </c>
       <c r="H67" s="28">
         <v>6</v>
+      </c>
+      <c r="I67" s="26">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="K67" s="29"/>
       <c r="O67" s="26">
@@ -25973,11 +26246,15 @@
       <c r="B68" s="27">
         <v>0.4</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>42</v>
       </c>
       <c r="H68" s="28">
         <v>42</v>
+      </c>
+      <c r="I68" s="26">
+        <f t="shared" ref="I68:I131" si="5">E68+G68-F68-H68</f>
+        <v>0</v>
       </c>
       <c r="K68" s="29"/>
       <c r="M68">
@@ -26462,11 +26739,15 @@
       <c r="B69" s="27">
         <v>1</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>28</v>
       </c>
       <c r="H69" s="28">
         <v>29</v>
+      </c>
+      <c r="I69" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="K69" s="32">
         <v>72</v>
@@ -26892,11 +27173,15 @@
       <c r="B70" s="27">
         <v>1</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>78</v>
       </c>
       <c r="H70" s="28">
         <v>76</v>
+      </c>
+      <c r="I70" s="26">
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="K70" s="29"/>
       <c r="M70">
@@ -27423,11 +27708,15 @@
       <c r="B71" s="27">
         <v>1</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>74</v>
       </c>
       <c r="H71" s="28">
         <v>73</v>
+      </c>
+      <c r="I71" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K71" s="32">
         <v>31</v>
@@ -27968,6 +28257,10 @@
       <c r="B72" s="27">
         <v>0.1</v>
       </c>
+      <c r="I72" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K72" s="29"/>
       <c r="O72" s="26">
         <v>0</v>
@@ -28242,6 +28535,10 @@
       <c r="B73" s="27">
         <v>1</v>
       </c>
+      <c r="I73" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K73" s="29"/>
       <c r="O73" s="26">
         <v>0</v>
@@ -28516,6 +28813,10 @@
       <c r="B74" s="27">
         <v>0.09</v>
       </c>
+      <c r="I74" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K74" s="29"/>
       <c r="O74" s="26">
         <v>0</v>
@@ -28898,6 +29199,10 @@
       <c r="B75" s="27">
         <v>1</v>
       </c>
+      <c r="I75" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K75" s="29"/>
       <c r="O75" s="26">
         <v>0</v>
@@ -29172,6 +29477,10 @@
       <c r="B76" s="27">
         <v>1</v>
       </c>
+      <c r="I76" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K76" s="29"/>
       <c r="O76" s="26">
         <v>0</v>
@@ -29446,11 +29755,15 @@
       <c r="B77" s="27">
         <v>0.35</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>16</v>
       </c>
       <c r="H77" s="28">
         <v>18</v>
+      </c>
+      <c r="I77" s="26">
+        <f t="shared" si="5"/>
+        <v>-2</v>
       </c>
       <c r="K77" s="29"/>
       <c r="O77" s="26">
@@ -29896,6 +30209,10 @@
       <c r="B78" s="27">
         <v>1</v>
       </c>
+      <c r="I78" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K78" s="29"/>
       <c r="O78" s="26">
         <v>0</v>
@@ -30169,6 +30486,10 @@
       </c>
       <c r="B79" s="27">
         <v>1</v>
+      </c>
+      <c r="I79" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K79" s="32">
         <v>104</v>
@@ -30658,6 +30979,10 @@
       <c r="B80" s="27">
         <v>0.4</v>
       </c>
+      <c r="I80" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K80" s="29"/>
       <c r="O80" s="26">
         <v>0</v>
@@ -30991,11 +31316,15 @@
       <c r="B81" s="27">
         <v>0.3</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>184</v>
       </c>
       <c r="H81" s="28">
         <v>187</v>
+      </c>
+      <c r="I81" s="26">
+        <f t="shared" si="5"/>
+        <v>-3</v>
       </c>
       <c r="K81" s="29"/>
       <c r="M81">
@@ -31347,6 +31676,10 @@
       <c r="B82" s="27">
         <v>1</v>
       </c>
+      <c r="I82" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K82" s="29"/>
       <c r="O82" s="26">
         <v>0</v>
@@ -31577,6 +31910,10 @@
       <c r="B83" s="27">
         <v>1</v>
       </c>
+      <c r="I83" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K83" s="29"/>
       <c r="O83" s="26">
         <v>0</v>
@@ -31851,11 +32188,15 @@
       <c r="B84" s="27">
         <v>1</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>100</v>
       </c>
-      <c r="G84" s="28">
+      <c r="F84" s="28">
         <v>99</v>
+      </c>
+      <c r="I84" s="26">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="K84" s="29"/>
       <c r="M84">
@@ -32398,6 +32739,10 @@
       <c r="B85" s="27">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I85" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K85" s="29"/>
       <c r="O85" s="26">
         <v>0</v>
@@ -32705,6 +33050,10 @@
       <c r="B86" s="27">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I86" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K86" s="29"/>
       <c r="O86" s="26">
         <v>0</v>
@@ -32979,6 +33328,10 @@
       <c r="B87" s="27">
         <v>0.35</v>
       </c>
+      <c r="I87" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K87" s="29"/>
       <c r="O87" s="26">
         <v>0</v>
@@ -33298,6 +33651,10 @@
       <c r="B88" s="27">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I88" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K88" s="29"/>
       <c r="O88" s="26">
         <v>0</v>
@@ -33680,6 +34037,10 @@
       <c r="B89" s="27">
         <v>0.35</v>
       </c>
+      <c r="I89" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K89" s="29"/>
       <c r="O89" s="26">
         <v>0</v>
@@ -34009,6 +34370,10 @@
       </c>
       <c r="B90" s="27">
         <v>0.28000000000000003</v>
+      </c>
+      <c r="I90" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K90" s="29"/>
       <c r="O90" s="26">
@@ -34284,17 +34649,21 @@
       <c r="B91" s="27">
         <v>0.35</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>168</v>
       </c>
-      <c r="D91">
+      <c r="F91" s="28">
+        <v>172.35294117647061</v>
+      </c>
+      <c r="G91">
         <v>120</v>
-      </c>
-      <c r="G91" s="28">
-        <v>172.35294117647061</v>
       </c>
       <c r="H91" s="28">
         <v>120.64705882352941</v>
+      </c>
+      <c r="I91" s="26">
+        <f t="shared" si="5"/>
+        <v>-5.0000000000000142</v>
       </c>
       <c r="K91" s="32">
         <v>136</v>
@@ -34844,6 +35213,10 @@
       <c r="B92" s="27">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I92" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K92" s="29"/>
       <c r="O92" s="26">
         <v>0</v>
@@ -35221,17 +35594,21 @@
       <c r="B93" s="27">
         <v>0.41</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>248</v>
       </c>
-      <c r="D93">
+      <c r="F93" s="28">
+        <v>251.76470588235301</v>
+      </c>
+      <c r="G93">
         <v>176</v>
-      </c>
-      <c r="G93" s="28">
-        <v>251.76470588235301</v>
       </c>
       <c r="H93" s="28">
         <v>176.23529411764699</v>
+      </c>
+      <c r="I93" s="26">
+        <f t="shared" si="5"/>
+        <v>-4</v>
       </c>
       <c r="K93" s="32">
         <v>112</v>
@@ -35770,6 +36147,10 @@
       <c r="B94" s="27">
         <v>0.5</v>
       </c>
+      <c r="I94" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K94" s="29"/>
       <c r="O94" s="26">
         <v>0</v>
@@ -36044,6 +36425,10 @@
       <c r="B95" s="27">
         <v>0.41</v>
       </c>
+      <c r="I95" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K95" s="29"/>
       <c r="O95" s="26">
         <v>0</v>
@@ -36346,11 +36731,15 @@
       <c r="B96" s="27">
         <v>0.41</v>
       </c>
-      <c r="D96">
+      <c r="G96">
         <v>10</v>
       </c>
       <c r="H96" s="28">
         <v>16</v>
+      </c>
+      <c r="I96" s="26">
+        <f t="shared" si="5"/>
+        <v>-6</v>
       </c>
       <c r="K96" s="32">
         <v>100</v>
@@ -36592,6 +36981,10 @@
       <c r="B97" s="27">
         <v>0.41</v>
       </c>
+      <c r="I97" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K97" s="29"/>
       <c r="O97" s="26">
         <v>0</v>
@@ -36888,6 +37281,10 @@
       <c r="B98" s="27">
         <v>0.5</v>
       </c>
+      <c r="I98" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K98" s="29"/>
       <c r="O98" s="26">
         <v>0</v>
@@ -37162,6 +37559,10 @@
       <c r="B99" s="27">
         <v>0.41</v>
       </c>
+      <c r="I99" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K99" s="29"/>
       <c r="O99" s="26">
         <v>0</v>
@@ -37436,6 +37837,10 @@
       <c r="B100" s="27">
         <v>0.4</v>
       </c>
+      <c r="I100" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K100" s="29"/>
       <c r="O100" s="26">
         <v>0</v>
@@ -37710,6 +38115,10 @@
       <c r="B101" s="27">
         <v>1</v>
       </c>
+      <c r="I101" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K101" s="29"/>
       <c r="O101" s="26">
         <v>0</v>
@@ -37984,6 +38393,10 @@
       <c r="B102" s="27">
         <v>0.4</v>
       </c>
+      <c r="I102" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K102" s="29"/>
       <c r="O102" s="26">
         <v>0</v>
@@ -38380,6 +38793,10 @@
       <c r="B103" s="27">
         <v>1</v>
       </c>
+      <c r="I103" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K103" s="29"/>
       <c r="O103" s="26">
         <v>0</v>
@@ -38654,6 +39071,10 @@
       <c r="B104" s="27">
         <v>0.41</v>
       </c>
+      <c r="I104" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K104" s="29"/>
       <c r="O104" s="26">
         <v>0</v>
@@ -39018,6 +39439,10 @@
       <c r="B105" s="27">
         <v>1</v>
       </c>
+      <c r="I105" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K105" s="29"/>
       <c r="O105" s="26">
         <v>0</v>
@@ -39292,11 +39717,15 @@
       <c r="B106" s="27">
         <v>0.36</v>
       </c>
-      <c r="D106">
+      <c r="G106">
         <v>72</v>
       </c>
       <c r="H106" s="28">
         <v>77</v>
+      </c>
+      <c r="I106" s="26">
+        <f t="shared" si="5"/>
+        <v>-5</v>
       </c>
       <c r="K106" s="29"/>
       <c r="O106" s="26">
@@ -39802,6 +40231,10 @@
       <c r="B107" s="27">
         <v>1</v>
       </c>
+      <c r="I107" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K107" s="29"/>
       <c r="O107" s="26">
         <v>0</v>
@@ -40076,6 +40509,10 @@
       <c r="B108" s="27">
         <v>0.41</v>
       </c>
+      <c r="I108" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K108" s="29"/>
       <c r="O108" s="26">
         <v>0</v>
@@ -40520,6 +40957,10 @@
       <c r="B109" s="27">
         <v>1</v>
       </c>
+      <c r="I109" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K109" s="29"/>
       <c r="O109" s="26">
         <v>0</v>
@@ -40794,6 +41235,10 @@
       <c r="B110" s="27">
         <v>0.41</v>
       </c>
+      <c r="I110" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K110" s="29"/>
       <c r="O110" s="26">
         <v>0</v>
@@ -41227,6 +41672,10 @@
       <c r="B111" s="27">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I111" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K111" s="29"/>
       <c r="O111" s="26">
         <v>0</v>
@@ -41563,6 +42012,10 @@
       <c r="B112" s="27">
         <v>0.35</v>
       </c>
+      <c r="I112" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K112" s="29"/>
       <c r="O112" s="26">
         <v>0</v>
@@ -41837,6 +42290,10 @@
       <c r="B113" s="27">
         <v>0.4</v>
       </c>
+      <c r="I113" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K113" s="29"/>
       <c r="O113" s="26">
         <v>0</v>
@@ -42138,6 +42595,10 @@
       <c r="B114" s="27">
         <v>0.16</v>
       </c>
+      <c r="I114" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K114" s="29"/>
       <c r="O114" s="26">
         <v>0</v>
@@ -42412,6 +42873,10 @@
       <c r="B115" s="27">
         <v>0.5</v>
       </c>
+      <c r="I115" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K115" s="29"/>
       <c r="O115" s="26">
         <v>0</v>
@@ -42686,11 +43151,15 @@
       <c r="B116" s="27">
         <v>0.33</v>
       </c>
-      <c r="D116">
+      <c r="G116">
         <v>24</v>
       </c>
       <c r="H116" s="28">
         <v>25</v>
+      </c>
+      <c r="I116" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="K116" s="29"/>
       <c r="M116">
@@ -43078,6 +43547,10 @@
       <c r="B117" s="27">
         <v>1</v>
       </c>
+      <c r="I117" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K117" s="29"/>
       <c r="O117" s="26">
         <v>0</v>
@@ -43352,11 +43825,15 @@
       <c r="B118" s="27">
         <v>0.33</v>
       </c>
-      <c r="D118">
+      <c r="G118">
         <v>32</v>
       </c>
       <c r="H118" s="28">
         <v>33</v>
+      </c>
+      <c r="I118" s="26">
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
       <c r="K118" s="29"/>
       <c r="N118">
@@ -43763,6 +44240,10 @@
       <c r="B119" s="27">
         <v>1</v>
       </c>
+      <c r="I119" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K119" s="29"/>
       <c r="O119" s="26">
         <v>0</v>
@@ -44037,6 +44518,10 @@
       <c r="B120" s="27">
         <v>0.33</v>
       </c>
+      <c r="I120" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K120" s="29"/>
       <c r="O120" s="26">
         <v>0</v>
@@ -44493,6 +44978,10 @@
       <c r="B121" s="27">
         <v>1</v>
       </c>
+      <c r="I121" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K121" s="29"/>
       <c r="O121" s="26">
         <v>0</v>
@@ -44798,6 +45287,10 @@
       <c r="B122" s="27">
         <v>0.33</v>
       </c>
+      <c r="I122" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K122" s="29"/>
       <c r="O122" s="26">
         <v>0</v>
@@ -45090,6 +45583,10 @@
       <c r="B123" s="27">
         <v>1</v>
       </c>
+      <c r="I123" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K123" s="29"/>
       <c r="O123" s="26">
         <v>0</v>
@@ -45364,6 +45861,10 @@
       <c r="B124" s="27">
         <v>0.75</v>
       </c>
+      <c r="I124" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K124" s="29"/>
       <c r="O124" s="26">
         <v>0</v>
@@ -45638,6 +46139,10 @@
       <c r="B125" s="27">
         <v>0.66</v>
       </c>
+      <c r="I125" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K125" s="29"/>
       <c r="O125" s="26">
         <v>0</v>
@@ -45912,6 +46417,10 @@
       <c r="B126" s="27">
         <v>0.66</v>
       </c>
+      <c r="I126" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K126" s="29"/>
       <c r="O126" s="26">
         <v>0</v>
@@ -46186,6 +46695,10 @@
       <c r="B127" s="27">
         <v>0.66</v>
       </c>
+      <c r="I127" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K127" s="29"/>
       <c r="O127" s="26">
         <v>0</v>
@@ -46460,11 +46973,15 @@
       <c r="B128" s="27">
         <v>0.33</v>
       </c>
-      <c r="D128">
+      <c r="G128">
         <v>24</v>
       </c>
       <c r="H128" s="28">
         <v>31</v>
+      </c>
+      <c r="I128" s="26">
+        <f t="shared" si="5"/>
+        <v>-7</v>
       </c>
       <c r="K128" s="29"/>
       <c r="O128" s="26">
@@ -46908,6 +47425,10 @@
       <c r="B129" s="27">
         <v>0.36</v>
       </c>
+      <c r="I129" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K129" s="29"/>
       <c r="O129" s="26">
         <v>0</v>
@@ -47350,6 +47871,10 @@
       <c r="B130" s="27">
         <v>0.15</v>
       </c>
+      <c r="I130" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K130" s="29"/>
       <c r="O130" s="26">
         <v>0</v>
@@ -47624,6 +48149,10 @@
       <c r="B131" s="27">
         <v>0.15</v>
       </c>
+      <c r="I131" s="26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K131" s="29"/>
       <c r="O131" s="26">
         <v>0</v>
@@ -47898,6 +48427,10 @@
       <c r="B132" s="27">
         <v>0.15</v>
       </c>
+      <c r="I132" s="26">
+        <f t="shared" ref="I132:I184" si="6">E132+G132-F132-H132</f>
+        <v>0</v>
+      </c>
       <c r="K132" s="29"/>
       <c r="O132" s="26">
         <v>0</v>
@@ -48172,17 +48705,21 @@
       <c r="B133" s="27">
         <v>1</v>
       </c>
-      <c r="C133">
+      <c r="E133">
         <v>128</v>
       </c>
-      <c r="D133">
+      <c r="F133" s="28">
+        <v>125.2941176470588</v>
+      </c>
+      <c r="G133">
         <v>83</v>
-      </c>
-      <c r="G133" s="28">
-        <v>125.2941176470588</v>
       </c>
       <c r="H133" s="28">
         <v>87.705882352941174</v>
+      </c>
+      <c r="I133" s="26">
+        <f t="shared" si="6"/>
+        <v>-1.9999999999999716</v>
       </c>
       <c r="K133" s="32">
         <v>190</v>
@@ -48732,6 +49269,10 @@
       </c>
       <c r="B134" s="27">
         <v>1</v>
+      </c>
+      <c r="I134" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K134" s="29"/>
       <c r="O134" s="26">
@@ -48855,6 +49396,10 @@
       <c r="B135" s="27">
         <v>0.1</v>
       </c>
+      <c r="I135" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K135" s="29"/>
       <c r="O135" s="26">
         <v>0</v>
@@ -49152,11 +49697,15 @@
       <c r="B136" s="27">
         <v>0.4</v>
       </c>
-      <c r="D136">
+      <c r="G136">
         <v>6</v>
       </c>
       <c r="H136" s="28">
         <v>11</v>
+      </c>
+      <c r="I136" s="26">
+        <f t="shared" si="6"/>
+        <v>-5</v>
       </c>
       <c r="K136" s="32">
         <v>66</v>
@@ -49402,6 +49951,10 @@
       <c r="B137" s="27">
         <v>1</v>
       </c>
+      <c r="I137" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K137" s="29"/>
       <c r="O137" s="26">
         <v>0</v>
@@ -49676,6 +50229,10 @@
       <c r="B138" s="27">
         <v>1</v>
       </c>
+      <c r="I138" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K138" s="29"/>
       <c r="O138" s="26">
         <v>0</v>
@@ -49949,6 +50506,10 @@
       </c>
       <c r="B139" s="27">
         <v>1</v>
+      </c>
+      <c r="I139" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K139" s="29"/>
       <c r="M139">
@@ -50303,6 +50864,10 @@
       <c r="B140" s="27">
         <v>1</v>
       </c>
+      <c r="I140" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K140" s="29"/>
       <c r="O140" s="26">
         <v>0</v>
@@ -50576,6 +51141,10 @@
       </c>
       <c r="B141" s="27">
         <v>1</v>
+      </c>
+      <c r="I141" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K141" s="29"/>
       <c r="O141" s="26">
@@ -50796,6 +51365,10 @@
       <c r="B142" s="27">
         <v>1</v>
       </c>
+      <c r="I142" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K142" s="29"/>
       <c r="O142" s="26">
         <v>0</v>
@@ -51008,6 +51581,10 @@
       <c r="B143" s="27">
         <v>1</v>
       </c>
+      <c r="I143" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K143" s="29"/>
       <c r="O143" s="26">
         <v>0</v>
@@ -51217,6 +51794,10 @@
       <c r="B144" s="27">
         <v>0.4</v>
       </c>
+      <c r="I144" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K144" s="29"/>
       <c r="O144" s="26">
         <v>0</v>
@@ -51444,6 +52025,10 @@
       <c r="B145" s="27">
         <v>0.41</v>
       </c>
+      <c r="I145" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K145" s="29"/>
       <c r="O145" s="26">
         <v>0</v>
@@ -51717,6 +52302,10 @@
       </c>
       <c r="B146" s="27">
         <v>0.33</v>
+      </c>
+      <c r="I146" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K146" s="29"/>
       <c r="O146" s="26">
@@ -52030,6 +52619,10 @@
       <c r="B147" s="27">
         <v>0.3</v>
       </c>
+      <c r="I147" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K147" s="29"/>
       <c r="O147" s="26">
         <v>0</v>
@@ -52327,6 +52920,10 @@
       </c>
       <c r="B148" s="27">
         <v>1</v>
+      </c>
+      <c r="I148" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K148" s="29"/>
       <c r="O148" s="26">
@@ -52622,6 +53219,10 @@
       <c r="B149" s="27">
         <v>1</v>
       </c>
+      <c r="I149" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K149" s="29"/>
       <c r="O149" s="26">
         <v>0</v>
@@ -52913,11 +53514,15 @@
       <c r="B150" s="27">
         <v>1</v>
       </c>
-      <c r="D150">
+      <c r="G150">
         <v>43</v>
       </c>
       <c r="H150" s="28">
         <v>44</v>
+      </c>
+      <c r="I150" s="26">
+        <f t="shared" si="6"/>
+        <v>-1</v>
       </c>
       <c r="K150" s="29"/>
       <c r="M150">
@@ -53322,17 +53927,21 @@
       <c r="B151" s="27">
         <v>0.41</v>
       </c>
-      <c r="C151">
+      <c r="E151">
         <v>190</v>
       </c>
-      <c r="D151">
+      <c r="F151" s="28">
+        <v>190.58823529411771</v>
+      </c>
+      <c r="G151">
         <v>130</v>
-      </c>
-      <c r="G151" s="28">
-        <v>190.58823529411771</v>
       </c>
       <c r="H151" s="28">
         <v>133.41176470588229</v>
+      </c>
+      <c r="I151" s="26">
+        <f t="shared" si="6"/>
+        <v>-4</v>
       </c>
       <c r="K151" s="32">
         <v>160</v>
@@ -53760,11 +54369,15 @@
       <c r="B152" s="27">
         <v>1</v>
       </c>
-      <c r="D152">
+      <c r="G152">
         <v>93</v>
       </c>
       <c r="H152" s="28">
         <v>90</v>
+      </c>
+      <c r="I152" s="26">
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="K152" s="32">
         <v>125</v>
@@ -54187,11 +54800,15 @@
       <c r="B153" s="27">
         <v>0.35</v>
       </c>
-      <c r="D153">
+      <c r="G153">
         <v>128</v>
       </c>
       <c r="H153" s="28">
         <v>131</v>
+      </c>
+      <c r="I153" s="26">
+        <f t="shared" si="6"/>
+        <v>-3</v>
       </c>
       <c r="K153" s="29"/>
       <c r="M153">
@@ -54546,11 +55163,15 @@
       <c r="B154" s="27">
         <v>1</v>
       </c>
-      <c r="D154">
+      <c r="G154">
         <v>37</v>
       </c>
       <c r="H154" s="28">
         <v>37</v>
+      </c>
+      <c r="I154" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K154" s="29"/>
       <c r="O154" s="26">
@@ -54903,6 +55524,10 @@
       <c r="B155" s="27">
         <v>0.4</v>
       </c>
+      <c r="I155" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K155" s="29"/>
       <c r="O155" s="26">
         <v>0</v>
@@ -55311,17 +55936,21 @@
       <c r="B156" s="27">
         <v>0.41</v>
       </c>
-      <c r="C156">
+      <c r="E156">
         <v>180</v>
       </c>
-      <c r="D156">
+      <c r="F156" s="28">
+        <v>185.88235294117649</v>
+      </c>
+      <c r="G156">
         <v>130</v>
-      </c>
-      <c r="G156" s="28">
-        <v>185.88235294117649</v>
       </c>
       <c r="H156" s="28">
         <v>130.11764705882351</v>
+      </c>
+      <c r="I156" s="26">
+        <f t="shared" si="6"/>
+        <v>-6</v>
       </c>
       <c r="K156" s="29"/>
       <c r="O156" s="26">
@@ -55757,11 +56386,15 @@
       <c r="B157" s="27">
         <v>1</v>
       </c>
-      <c r="D157">
+      <c r="G157">
         <v>137</v>
       </c>
       <c r="H157" s="28">
         <v>132</v>
+      </c>
+      <c r="I157" s="26">
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="K157" s="32">
         <v>111</v>
@@ -56143,6 +56776,10 @@
       <c r="B158" s="27">
         <v>0.35</v>
       </c>
+      <c r="I158" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K158" s="32">
         <v>72</v>
       </c>
@@ -56539,6 +57176,10 @@
       </c>
       <c r="B159" s="27">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="I159" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K159" s="29"/>
       <c r="O159" s="26">
@@ -56746,11 +57387,15 @@
       <c r="B160" s="27">
         <v>0.18</v>
       </c>
-      <c r="D160">
+      <c r="G160">
         <v>40</v>
       </c>
       <c r="H160" s="28">
         <v>44</v>
+      </c>
+      <c r="I160" s="26">
+        <f t="shared" si="6"/>
+        <v>-4</v>
       </c>
       <c r="K160" s="32">
         <v>70</v>
@@ -57114,6 +57759,10 @@
       </c>
       <c r="B161" s="27">
         <v>1</v>
+      </c>
+      <c r="I161" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K161" s="29"/>
       <c r="O161" s="26">
@@ -57393,6 +58042,10 @@
       <c r="B162" s="27">
         <v>0.4</v>
       </c>
+      <c r="I162" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K162" s="29"/>
       <c r="O162" s="26">
         <v>0</v>
@@ -57711,6 +58364,10 @@
       </c>
       <c r="B163" s="27">
         <v>1</v>
+      </c>
+      <c r="I163" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K163" s="29"/>
       <c r="O163" s="26">
@@ -57934,6 +58591,10 @@
       </c>
       <c r="B164" s="27">
         <v>0.84</v>
+      </c>
+      <c r="I164" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K164" s="29"/>
       <c r="O164" s="26">
@@ -58157,6 +58818,10 @@
       <c r="B165" s="27">
         <v>0.84</v>
       </c>
+      <c r="I165" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K165" s="29"/>
       <c r="O165" s="26">
         <v>0</v>
@@ -58374,17 +59039,21 @@
       <c r="B166" s="27">
         <v>0.35</v>
       </c>
-      <c r="C166">
+      <c r="E166">
         <v>152</v>
       </c>
-      <c r="D166">
+      <c r="F166" s="28">
+        <v>156.47058823529409</v>
+      </c>
+      <c r="G166">
         <v>104</v>
-      </c>
-      <c r="G166" s="28">
-        <v>156.47058823529409</v>
       </c>
       <c r="H166" s="28">
         <v>109.5294117647059</v>
+      </c>
+      <c r="I166" s="26">
+        <f t="shared" si="6"/>
+        <v>-9.9999999999999858</v>
       </c>
       <c r="K166" s="32">
         <v>144</v>
@@ -58782,17 +59451,21 @@
       <c r="B167" s="27">
         <v>1</v>
       </c>
-      <c r="C167">
+      <c r="E167">
         <v>172</v>
       </c>
-      <c r="D167">
+      <c r="F167" s="28">
+        <v>167.64705882352939</v>
+      </c>
+      <c r="G167">
         <v>120</v>
-      </c>
-      <c r="G167" s="28">
-        <v>167.64705882352939</v>
       </c>
       <c r="H167" s="28">
         <v>117.35294117647059</v>
+      </c>
+      <c r="I167" s="26">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000142</v>
       </c>
       <c r="K167" s="32">
         <v>159</v>
@@ -59225,17 +59898,25 @@
       <c r="B168" s="27">
         <v>0.35</v>
       </c>
-      <c r="C168">
+      <c r="E168">
         <v>152</v>
       </c>
-      <c r="D168">
+      <c r="F168" s="28">
+        <v>154.70588235294119</v>
+      </c>
+      <c r="G168">
         <v>96</v>
-      </c>
-      <c r="G168" s="28">
-        <v>154.70588235294119</v>
       </c>
       <c r="H168" s="28">
         <v>108.2941176470588</v>
+      </c>
+      <c r="I168" s="25">
+        <f t="shared" si="6"/>
+        <v>-14.999999999999986</v>
+      </c>
+      <c r="J168" s="26">
+        <f>-1*I168*B168</f>
+        <v>5.2499999999999947</v>
       </c>
       <c r="K168" s="32">
         <v>120</v>
@@ -59669,6 +60350,10 @@
       <c r="B169" s="27">
         <v>0.28000000000000003</v>
       </c>
+      <c r="I169" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K169" s="29"/>
       <c r="O169" s="26">
         <v>0</v>
@@ -59906,6 +60591,10 @@
       </c>
       <c r="B170" s="27">
         <v>0.3</v>
+      </c>
+      <c r="I170" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K170" s="32">
         <v>54</v>
@@ -60210,6 +60899,10 @@
       </c>
       <c r="B171" s="27">
         <v>0.18</v>
+      </c>
+      <c r="I171" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K171" s="29"/>
       <c r="O171" s="26">
@@ -60460,11 +61153,15 @@
       <c r="B172" s="27">
         <v>0.3</v>
       </c>
-      <c r="D172">
+      <c r="G172">
         <v>80</v>
       </c>
       <c r="H172" s="28">
         <v>86</v>
+      </c>
+      <c r="I172" s="26">
+        <f t="shared" si="6"/>
+        <v>-6</v>
       </c>
       <c r="K172" s="32">
         <v>8</v>
@@ -60707,11 +61404,15 @@
       <c r="B173" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D173">
+      <c r="G173">
         <v>80</v>
       </c>
       <c r="H173" s="28">
         <v>87</v>
+      </c>
+      <c r="I173" s="26">
+        <f t="shared" si="6"/>
+        <v>-7</v>
       </c>
       <c r="K173" s="32">
         <v>88</v>
@@ -61054,17 +61755,25 @@
       <c r="B174" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C174">
+      <c r="E174">
         <v>176</v>
       </c>
-      <c r="D174">
+      <c r="F174" s="28">
+        <v>188.2352941176471</v>
+      </c>
+      <c r="G174">
         <v>120</v>
-      </c>
-      <c r="G174" s="28">
-        <v>188.2352941176471</v>
       </c>
       <c r="H174" s="28">
         <v>131.7647058823529</v>
+      </c>
+      <c r="I174" s="25">
+        <f t="shared" si="6"/>
+        <v>-24</v>
+      </c>
+      <c r="J174" s="26">
+        <f>-1*I174*B174</f>
+        <v>6.7200000000000006</v>
       </c>
       <c r="K174" s="32">
         <v>136</v>
@@ -61422,11 +62131,15 @@
       <c r="B175" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D175">
+      <c r="G175">
         <v>152</v>
       </c>
       <c r="H175" s="28">
         <v>153</v>
+      </c>
+      <c r="I175" s="26">
+        <f t="shared" si="6"/>
+        <v>-1</v>
       </c>
       <c r="K175" s="32">
         <v>64</v>
@@ -61792,11 +62505,15 @@
       <c r="B176" s="27">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C176">
+      <c r="E176">
         <v>96</v>
       </c>
-      <c r="G176" s="28">
+      <c r="F176" s="28">
         <v>103</v>
+      </c>
+      <c r="I176" s="26">
+        <f t="shared" si="6"/>
+        <v>-7</v>
       </c>
       <c r="K176" s="32">
         <v>232</v>
@@ -62119,11 +62836,15 @@
       <c r="B177" s="27">
         <v>0.4</v>
       </c>
-      <c r="D177">
+      <c r="G177">
         <v>84</v>
       </c>
       <c r="H177" s="28">
         <v>84</v>
+      </c>
+      <c r="I177" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K177" s="29"/>
       <c r="M177">
@@ -62254,6 +62975,10 @@
       <c r="B178" s="27">
         <v>0.33</v>
       </c>
+      <c r="I178" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K178" s="29"/>
       <c r="O178" s="26">
         <v>0</v>
@@ -62473,11 +63198,15 @@
       <c r="B179" s="27">
         <v>0.3</v>
       </c>
-      <c r="D179">
+      <c r="G179">
         <v>119</v>
       </c>
       <c r="H179" s="28">
         <v>119</v>
+      </c>
+      <c r="I179" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K179" s="29"/>
       <c r="M179">
@@ -62770,6 +63499,10 @@
       </c>
       <c r="B180" s="27">
         <v>1</v>
+      </c>
+      <c r="I180" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K180" s="29"/>
       <c r="N180">
@@ -62893,6 +63626,10 @@
       <c r="B181" s="27">
         <v>0.25</v>
       </c>
+      <c r="I181" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K181" s="29"/>
       <c r="O181" s="26">
         <v>0</v>
@@ -63035,6 +63772,10 @@
       </c>
       <c r="B182" s="27">
         <v>0.4</v>
+      </c>
+      <c r="I182" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K182" s="29"/>
       <c r="O182" s="26">
@@ -63165,9 +63906,12 @@
       <c r="B183" s="27">
         <v>0.12</v>
       </c>
-      <c r="C183" s="26"/>
-      <c r="D183" s="28">
+      <c r="E183" s="26"/>
+      <c r="G183" s="28">
         <v>64</v>
+      </c>
+      <c r="I183" s="26">
+        <v>0</v>
       </c>
       <c r="K183" s="29"/>
       <c r="O183" s="26"/>
@@ -63284,6 +64028,10 @@
       <c r="B184" s="27">
         <v>0.18</v>
       </c>
+      <c r="I184" s="26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K184" s="18"/>
       <c r="L184" s="9"/>
       <c r="M184" s="9"/>
